--- a/sumabura-devtool/doc/画面レイアウト.xlsx
+++ b/sumabura-devtool/doc/画面レイアウト.xlsx
@@ -8,19 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\development\sumabura-tool\sumabura-devtool\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8025048B-B8D5-41B1-BC70-520A7E2C52C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4996075C-1C7C-475F-8493-63BE07AC8A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="960" windowWidth="21576" windowHeight="11280" activeTab="2" xr2:uid="{556F9C60-5F00-4990-B298-66523B57B415}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{556F9C60-5F00-4990-B298-66523B57B415}"/>
   </bookViews>
   <sheets>
     <sheet name="トップヘッダー" sheetId="6" r:id="rId1"/>
     <sheet name="メニューヘッダー" sheetId="7" r:id="rId2"/>
     <sheet name="トップ" sheetId="4" r:id="rId3"/>
+    <sheet name="勝率表" sheetId="8" r:id="rId4"/>
+    <sheet name="ファイター一覧" sheetId="9" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">トップ!$A$1:$AZ$58</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">トップヘッダー!$A$1:$BA$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">ファイター一覧!$A$1:$AZ$62</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">メニューヘッダー!$A$1:$BA$44</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">勝率表!$A$1:$AZ$61</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="72">
   <si>
     <t>スマブラツール</t>
     <phoneticPr fontId="2"/>
@@ -357,6 +361,75 @@
       <t>カイジョ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保存</t>
+    <rPh sb="0" eb="2">
+      <t>ホゾン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　マリオ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ドンキーコング</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　リンク</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　サムス・ダークサムス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ヨッシー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　カズヤ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>　ソラ</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>対策</t>
+    <rPh sb="0" eb="2">
+      <t>タイサク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>昇順</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジュン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>行動</t>
+    <rPh sb="0" eb="2">
+      <t>コウドウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>※省略</t>
+    <rPh sb="1" eb="3">
+      <t>ショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>65%</t>
+  </si>
+  <si>
+    <t>52%</t>
   </si>
 </sst>
 </file>
@@ -780,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,15 +959,312 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -907,257 +1277,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -1165,50 +1322,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2250,53 +2395,53 @@
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="27"/>
-      <c r="H3" s="36" t="s">
+      <c r="H3" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="36"/>
-      <c r="J3" s="36"/>
-      <c r="K3" s="36"/>
-      <c r="L3" s="36"/>
-      <c r="M3" s="36"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="28"/>
       <c r="O3" s="27"/>
-      <c r="P3" s="36" t="s">
+      <c r="P3" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="36"/>
-      <c r="R3" s="36"/>
-      <c r="S3" s="36"/>
-      <c r="T3" s="36"/>
-      <c r="U3" s="36"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
       <c r="V3" s="28"/>
       <c r="W3" s="27"/>
-      <c r="X3" s="36" t="s">
+      <c r="X3" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="Y3" s="36"/>
-      <c r="Z3" s="36"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
+      <c r="Y3" s="39"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
       <c r="AD3" s="28"/>
       <c r="AE3" s="27"/>
-      <c r="AF3" s="36" t="s">
+      <c r="AF3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="39"/>
+      <c r="AJ3" s="39"/>
+      <c r="AK3" s="39"/>
       <c r="AL3" s="28"/>
       <c r="AM3" s="27"/>
-      <c r="AN3" s="36" t="s">
+      <c r="AN3" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
+      <c r="AO3" s="39"/>
+      <c r="AP3" s="39"/>
+      <c r="AQ3" s="39"/>
+      <c r="AR3" s="39"/>
       <c r="AS3" s="28"/>
       <c r="AT3" s="25"/>
       <c r="AU3" s="25"/>
@@ -2770,53 +2915,53 @@
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="29"/>
-      <c r="H24" s="35" t="s">
+      <c r="H24" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="I24" s="35"/>
-      <c r="J24" s="35"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="40"/>
+      <c r="K24" s="40"/>
+      <c r="L24" s="40"/>
+      <c r="M24" s="40"/>
       <c r="N24" s="31"/>
       <c r="O24" s="27"/>
-      <c r="P24" s="36" t="s">
+      <c r="P24" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="Q24" s="36"/>
-      <c r="R24" s="36"/>
-      <c r="S24" s="36"/>
-      <c r="T24" s="36"/>
-      <c r="U24" s="36"/>
+      <c r="Q24" s="39"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="39"/>
+      <c r="U24" s="39"/>
       <c r="V24" s="28"/>
       <c r="W24" s="27"/>
-      <c r="X24" s="36" t="s">
+      <c r="X24" s="39" t="s">
         <v>30</v>
       </c>
-      <c r="Y24" s="36"/>
-      <c r="Z24" s="36"/>
-      <c r="AA24" s="36"/>
-      <c r="AB24" s="36"/>
-      <c r="AC24" s="36"/>
+      <c r="Y24" s="39"/>
+      <c r="Z24" s="39"/>
+      <c r="AA24" s="39"/>
+      <c r="AB24" s="39"/>
+      <c r="AC24" s="39"/>
       <c r="AD24" s="28"/>
       <c r="AE24" s="27"/>
-      <c r="AF24" s="36" t="s">
+      <c r="AF24" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AG24" s="36"/>
-      <c r="AH24" s="36"/>
-      <c r="AI24" s="36"/>
-      <c r="AJ24" s="36"/>
-      <c r="AK24" s="36"/>
+      <c r="AG24" s="39"/>
+      <c r="AH24" s="39"/>
+      <c r="AI24" s="39"/>
+      <c r="AJ24" s="39"/>
+      <c r="AK24" s="39"/>
       <c r="AL24" s="28"/>
       <c r="AM24" s="27"/>
-      <c r="AN24" s="36" t="s">
+      <c r="AN24" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AO24" s="36"/>
-      <c r="AP24" s="36"/>
-      <c r="AQ24" s="36"/>
-      <c r="AR24" s="36"/>
+      <c r="AO24" s="39"/>
+      <c r="AP24" s="39"/>
+      <c r="AQ24" s="39"/>
+      <c r="AR24" s="39"/>
       <c r="AS24" s="28"/>
       <c r="AT24" s="25"/>
       <c r="AU24" s="25"/>
@@ -2881,16 +3026,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="H24:M24"/>
+    <mergeCell ref="P24:U24"/>
+    <mergeCell ref="X24:AC24"/>
+    <mergeCell ref="AF24:AK24"/>
+    <mergeCell ref="AN24:AR24"/>
     <mergeCell ref="H3:M3"/>
     <mergeCell ref="P3:U3"/>
     <mergeCell ref="X3:AC3"/>
     <mergeCell ref="AF3:AK3"/>
     <mergeCell ref="AN3:AR3"/>
-    <mergeCell ref="H24:M24"/>
-    <mergeCell ref="P24:U24"/>
-    <mergeCell ref="X24:AC24"/>
-    <mergeCell ref="AF24:AK24"/>
-    <mergeCell ref="AN24:AR24"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3162,10 +3307,6 @@
         <v>2</v>
       </c>
       <c r="B3" s="12"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
       <c r="G3" s="2"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -3204,10 +3345,6 @@
       <c r="AP3" s="3"/>
       <c r="AQ3" s="3"/>
       <c r="AR3" s="4"/>
-      <c r="AS3" s="127"/>
-      <c r="AT3" s="127"/>
-      <c r="AU3" s="127"/>
-      <c r="AV3" s="127"/>
       <c r="AW3" s="13"/>
     </row>
     <row r="4" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -3216,64 +3353,46 @@
         <v>3</v>
       </c>
       <c r="B4" s="12"/>
-      <c r="C4" s="127"/>
-      <c r="D4" s="127"/>
-      <c r="E4" s="127"/>
-      <c r="F4" s="127"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="126" t="s">
+      <c r="H4" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="126" t="s">
+      <c r="I4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="127"/>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="131" t="s">
+      <c r="M4" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N4" s="131"/>
-      <c r="O4" s="131"/>
-      <c r="P4" s="131"/>
-      <c r="Q4" s="120" t="s">
+      <c r="Q4" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="122"/>
-      <c r="V4" s="42" t="s">
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="W4" s="43"/>
-      <c r="X4" s="42" t="s">
+      <c r="W4" s="45"/>
+      <c r="X4" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="Y4" s="43"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="120">
+      <c r="Y4" s="45"/>
+      <c r="AA4" s="41">
         <v>1068</v>
       </c>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="122"/>
-      <c r="AE4" s="42" t="s">
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AF4" s="43"/>
-      <c r="AG4" s="127"/>
-      <c r="AH4" s="127"/>
-      <c r="AK4" s="127"/>
-      <c r="AL4" s="127"/>
-      <c r="AM4" s="127"/>
-      <c r="AP4" s="127"/>
-      <c r="AQ4" s="127"/>
+      <c r="AF4" s="45"/>
+      <c r="AG4" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH4" s="45"/>
       <c r="AR4" s="6"/>
-      <c r="AS4" s="127"/>
-      <c r="AT4" s="127"/>
-      <c r="AU4" s="127"/>
-      <c r="AV4" s="127"/>
       <c r="AW4" s="13"/>
     </row>
     <row r="5" spans="1:49" ht="4.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3282,52 +3401,8 @@
         <v>4</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="C5" s="127"/>
-      <c r="D5" s="127"/>
-      <c r="E5" s="127"/>
-      <c r="F5" s="127"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="127"/>
-      <c r="I5" s="127"/>
-      <c r="J5" s="127"/>
-      <c r="K5" s="127"/>
-      <c r="L5" s="127"/>
-      <c r="M5" s="127"/>
-      <c r="N5" s="127"/>
-      <c r="O5" s="127"/>
-      <c r="P5" s="127"/>
-      <c r="Q5" s="127"/>
-      <c r="R5" s="127"/>
-      <c r="S5" s="127"/>
-      <c r="T5" s="127"/>
-      <c r="U5" s="127"/>
-      <c r="V5" s="127"/>
-      <c r="W5" s="127"/>
-      <c r="X5" s="127"/>
-      <c r="Y5" s="127"/>
-      <c r="Z5" s="127"/>
-      <c r="AA5" s="127"/>
-      <c r="AB5" s="127"/>
-      <c r="AC5" s="127"/>
-      <c r="AD5" s="127"/>
-      <c r="AE5" s="127"/>
-      <c r="AF5" s="127"/>
-      <c r="AG5" s="127"/>
-      <c r="AH5" s="127"/>
-      <c r="AI5" s="127"/>
-      <c r="AJ5" s="127"/>
-      <c r="AK5" s="127"/>
-      <c r="AL5" s="127"/>
-      <c r="AM5" s="127"/>
-      <c r="AN5" s="127"/>
-      <c r="AO5" s="127"/>
-      <c r="AP5" s="127"/>
-      <c r="AQ5" s="127"/>
       <c r="AR5" s="6"/>
-      <c r="AS5" s="127"/>
-      <c r="AT5" s="127"/>
-      <c r="AU5" s="127"/>
-      <c r="AV5" s="127"/>
       <c r="AW5" s="13"/>
     </row>
     <row r="6" spans="1:49" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
@@ -3336,74 +3411,65 @@
         <v>5</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="109" t="s">
+      <c r="H6" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="111"/>
-      <c r="J6" s="109" t="s">
+      <c r="I6" s="65"/>
+      <c r="J6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="110"/>
-      <c r="L6" s="111"/>
-      <c r="M6" s="109" t="s">
+      <c r="K6" s="66"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="N6" s="110"/>
-      <c r="O6" s="110"/>
-      <c r="P6" s="110"/>
-      <c r="Q6" s="110"/>
-      <c r="R6" s="110"/>
-      <c r="S6" s="111"/>
-      <c r="T6" s="109" t="s">
+      <c r="N6" s="66"/>
+      <c r="O6" s="66"/>
+      <c r="P6" s="66"/>
+      <c r="Q6" s="66"/>
+      <c r="R6" s="66"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="111"/>
-      <c r="V6" s="109" t="s">
+      <c r="U6" s="65"/>
+      <c r="V6" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="W6" s="111"/>
-      <c r="X6" s="109" t="s">
+      <c r="W6" s="65"/>
+      <c r="X6" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="Y6" s="110"/>
-      <c r="Z6" s="111"/>
-      <c r="AA6" s="109" t="s">
+      <c r="Y6" s="66"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AB6" s="110"/>
-      <c r="AC6" s="110"/>
-      <c r="AD6" s="111"/>
-      <c r="AE6" s="109" t="s">
+      <c r="AB6" s="66"/>
+      <c r="AC6" s="66"/>
+      <c r="AD6" s="65"/>
+      <c r="AE6" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="111"/>
-      <c r="AH6" s="106" t="s">
+      <c r="AF6" s="66"/>
+      <c r="AG6" s="65"/>
+      <c r="AH6" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="AI6" s="107"/>
-      <c r="AJ6" s="107"/>
-      <c r="AK6" s="108"/>
-      <c r="AL6" s="106" t="s">
+      <c r="AI6" s="77"/>
+      <c r="AJ6" s="77"/>
+      <c r="AK6" s="78"/>
+      <c r="AL6" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="AM6" s="107"/>
-      <c r="AN6" s="107"/>
-      <c r="AO6" s="108"/>
-      <c r="AP6" s="104" t="s">
+      <c r="AM6" s="77"/>
+      <c r="AN6" s="77"/>
+      <c r="AO6" s="78"/>
+      <c r="AP6" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="AQ6" s="127"/>
       <c r="AR6" s="6"/>
-      <c r="AS6" s="127"/>
-      <c r="AT6" s="127"/>
-      <c r="AU6" s="127"/>
-      <c r="AV6" s="127"/>
       <c r="AW6" s="13"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.45">
@@ -3412,74 +3478,65 @@
         <v>6</v>
       </c>
       <c r="B7" s="12"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="66">
+      <c r="H7" s="67">
         <v>1</v>
       </c>
-      <c r="I7" s="68"/>
-      <c r="J7" s="50" t="s">
+      <c r="I7" s="69"/>
+      <c r="J7" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="58" t="s">
+      <c r="K7" s="89"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="N7" s="59"/>
-      <c r="O7" s="59"/>
-      <c r="P7" s="59"/>
-      <c r="Q7" s="59"/>
-      <c r="R7" s="59"/>
-      <c r="S7" s="60"/>
-      <c r="T7" s="66">
+      <c r="N7" s="98"/>
+      <c r="O7" s="98"/>
+      <c r="P7" s="98"/>
+      <c r="Q7" s="98"/>
+      <c r="R7" s="98"/>
+      <c r="S7" s="99"/>
+      <c r="T7" s="67">
         <v>42</v>
       </c>
-      <c r="U7" s="68"/>
-      <c r="V7" s="66">
+      <c r="U7" s="69"/>
+      <c r="V7" s="67">
         <v>35</v>
       </c>
-      <c r="W7" s="68"/>
-      <c r="X7" s="66" t="str">
+      <c r="W7" s="69"/>
+      <c r="X7" s="67" t="str">
         <f>ROUND(( T7 / (T7 + V7) ) * 100,0) &amp; "%"</f>
         <v>55%</v>
       </c>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="68"/>
-      <c r="AA7" s="66">
+      <c r="Y7" s="68"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="67">
         <v>1068</v>
       </c>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="68"/>
-      <c r="AE7" s="112" t="str">
+      <c r="AB7" s="68"/>
+      <c r="AC7" s="68"/>
+      <c r="AD7" s="69"/>
+      <c r="AE7" s="79" t="str">
         <f>IF(AA7-AH7&lt;0," - ",IF(AA7-AH7=0,""," + ")) &amp; ABS(AA7-AH7)</f>
         <v xml:space="preserve"> + 88</v>
       </c>
-      <c r="AF7" s="113"/>
-      <c r="AG7" s="114"/>
-      <c r="AH7" s="66">
+      <c r="AF7" s="80"/>
+      <c r="AG7" s="81"/>
+      <c r="AH7" s="67">
         <v>980</v>
       </c>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="68"/>
-      <c r="AL7" s="66">
+      <c r="AI7" s="68"/>
+      <c r="AJ7" s="68"/>
+      <c r="AK7" s="69"/>
+      <c r="AL7" s="67">
         <v>900</v>
       </c>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="68"/>
-      <c r="AP7" s="104"/>
-      <c r="AQ7" s="127"/>
+      <c r="AM7" s="68"/>
+      <c r="AN7" s="68"/>
+      <c r="AO7" s="69"/>
+      <c r="AP7" s="106"/>
       <c r="AR7" s="6"/>
-      <c r="AS7" s="127"/>
-      <c r="AT7" s="127"/>
-      <c r="AU7" s="127"/>
-      <c r="AV7" s="127"/>
       <c r="AW7" s="13"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.45">
@@ -3488,52 +3545,43 @@
         <v>7</v>
       </c>
       <c r="B8" s="12"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
       <c r="G8" s="5"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="132"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="61"/>
-      <c r="N8" s="129"/>
-      <c r="O8" s="129"/>
-      <c r="P8" s="129"/>
-      <c r="Q8" s="129"/>
-      <c r="R8" s="129"/>
-      <c r="S8" s="62"/>
-      <c r="T8" s="69"/>
-      <c r="U8" s="70"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="70"/>
-      <c r="X8" s="69"/>
-      <c r="Y8" s="128"/>
-      <c r="Z8" s="70"/>
-      <c r="AA8" s="69"/>
-      <c r="AB8" s="128"/>
-      <c r="AC8" s="128"/>
-      <c r="AD8" s="70"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="133"/>
-      <c r="AG8" s="116"/>
-      <c r="AH8" s="69"/>
-      <c r="AI8" s="128"/>
-      <c r="AJ8" s="128"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="69"/>
-      <c r="AM8" s="128"/>
-      <c r="AN8" s="128"/>
-      <c r="AO8" s="70"/>
-      <c r="AP8" s="104"/>
-      <c r="AQ8" s="127"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="72"/>
+      <c r="J8" s="91"/>
+      <c r="K8" s="92"/>
+      <c r="L8" s="93"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="101"/>
+      <c r="O8" s="101"/>
+      <c r="P8" s="101"/>
+      <c r="Q8" s="101"/>
+      <c r="R8" s="101"/>
+      <c r="S8" s="102"/>
+      <c r="T8" s="70"/>
+      <c r="U8" s="72"/>
+      <c r="V8" s="70"/>
+      <c r="W8" s="72"/>
+      <c r="X8" s="70"/>
+      <c r="Y8" s="71"/>
+      <c r="Z8" s="72"/>
+      <c r="AA8" s="70"/>
+      <c r="AB8" s="71"/>
+      <c r="AC8" s="71"/>
+      <c r="AD8" s="72"/>
+      <c r="AE8" s="82"/>
+      <c r="AF8" s="83"/>
+      <c r="AG8" s="84"/>
+      <c r="AH8" s="70"/>
+      <c r="AI8" s="71"/>
+      <c r="AJ8" s="71"/>
+      <c r="AK8" s="72"/>
+      <c r="AL8" s="70"/>
+      <c r="AM8" s="71"/>
+      <c r="AN8" s="71"/>
+      <c r="AO8" s="72"/>
+      <c r="AP8" s="106"/>
       <c r="AR8" s="6"/>
-      <c r="AS8" s="127"/>
-      <c r="AT8" s="127"/>
-      <c r="AU8" s="127"/>
-      <c r="AV8" s="127"/>
       <c r="AW8" s="13"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.45">
@@ -3542,52 +3590,43 @@
         <v>8</v>
       </c>
       <c r="B9" s="12"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="71"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="65"/>
-      <c r="T9" s="71"/>
-      <c r="U9" s="73"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="73"/>
-      <c r="X9" s="71"/>
-      <c r="Y9" s="72"/>
-      <c r="Z9" s="73"/>
-      <c r="AA9" s="71"/>
-      <c r="AB9" s="72"/>
-      <c r="AC9" s="72"/>
-      <c r="AD9" s="73"/>
-      <c r="AE9" s="117"/>
-      <c r="AF9" s="118"/>
-      <c r="AG9" s="119"/>
-      <c r="AH9" s="71"/>
-      <c r="AI9" s="72"/>
-      <c r="AJ9" s="72"/>
-      <c r="AK9" s="73"/>
-      <c r="AL9" s="71"/>
-      <c r="AM9" s="72"/>
-      <c r="AN9" s="72"/>
-      <c r="AO9" s="73"/>
-      <c r="AP9" s="104"/>
-      <c r="AQ9" s="127"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="75"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="96"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="104"/>
+      <c r="P9" s="104"/>
+      <c r="Q9" s="104"/>
+      <c r="R9" s="104"/>
+      <c r="S9" s="105"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="75"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="75"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="74"/>
+      <c r="Z9" s="75"/>
+      <c r="AA9" s="73"/>
+      <c r="AB9" s="74"/>
+      <c r="AC9" s="74"/>
+      <c r="AD9" s="75"/>
+      <c r="AE9" s="85"/>
+      <c r="AF9" s="86"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="73"/>
+      <c r="AI9" s="74"/>
+      <c r="AJ9" s="74"/>
+      <c r="AK9" s="75"/>
+      <c r="AL9" s="73"/>
+      <c r="AM9" s="74"/>
+      <c r="AN9" s="74"/>
+      <c r="AO9" s="75"/>
+      <c r="AP9" s="106"/>
       <c r="AR9" s="6"/>
-      <c r="AS9" s="127"/>
-      <c r="AT9" s="127"/>
-      <c r="AU9" s="127"/>
-      <c r="AV9" s="127"/>
       <c r="AW9" s="13"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.45">
@@ -3596,75 +3635,66 @@
         <v>9</v>
       </c>
       <c r="B10" s="12"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="66">
+      <c r="H10" s="67">
         <f>H7 + 1</f>
         <v>2</v>
       </c>
-      <c r="I10" s="68"/>
-      <c r="J10" s="96" t="s">
+      <c r="I10" s="69"/>
+      <c r="J10" s="108" t="s">
         <v>47</v>
       </c>
-      <c r="K10" s="97"/>
-      <c r="L10" s="98"/>
-      <c r="M10" s="58" t="s">
+      <c r="K10" s="109"/>
+      <c r="L10" s="110"/>
+      <c r="M10" s="97" t="s">
         <v>15</v>
       </c>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-      <c r="R10" s="59"/>
-      <c r="S10" s="60"/>
-      <c r="T10" s="66">
+      <c r="N10" s="98"/>
+      <c r="O10" s="98"/>
+      <c r="P10" s="98"/>
+      <c r="Q10" s="98"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="99"/>
+      <c r="T10" s="67">
         <v>20</v>
       </c>
-      <c r="U10" s="68"/>
-      <c r="V10" s="66">
+      <c r="U10" s="69"/>
+      <c r="V10" s="67">
         <v>11</v>
       </c>
-      <c r="W10" s="68"/>
-      <c r="X10" s="66" t="str">
+      <c r="W10" s="69"/>
+      <c r="X10" s="67" t="str">
         <f t="shared" ref="X10" si="2">ROUND(( T10 / (T10 + V10) ) * 100,0) &amp; "%"</f>
         <v>65%</v>
       </c>
-      <c r="Y10" s="67"/>
-      <c r="Z10" s="68"/>
-      <c r="AA10" s="66">
+      <c r="Y10" s="68"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="67">
         <v>612</v>
       </c>
-      <c r="AB10" s="67"/>
-      <c r="AC10" s="67"/>
-      <c r="AD10" s="68"/>
-      <c r="AE10" s="66" t="str">
+      <c r="AB10" s="68"/>
+      <c r="AC10" s="68"/>
+      <c r="AD10" s="69"/>
+      <c r="AE10" s="67" t="str">
         <f>IF(AA10-AH10&lt;0," - ",IF(AA10-AH10=0,""," + ")) &amp; ABS(AA10-AH10)</f>
         <v>0</v>
       </c>
-      <c r="AF10" s="67"/>
-      <c r="AG10" s="68"/>
-      <c r="AH10" s="66">
+      <c r="AF10" s="68"/>
+      <c r="AG10" s="69"/>
+      <c r="AH10" s="67">
         <v>612</v>
       </c>
-      <c r="AI10" s="67"/>
-      <c r="AJ10" s="67"/>
-      <c r="AK10" s="68"/>
-      <c r="AL10" s="66">
+      <c r="AI10" s="68"/>
+      <c r="AJ10" s="68"/>
+      <c r="AK10" s="69"/>
+      <c r="AL10" s="67">
         <v>500</v>
       </c>
-      <c r="AM10" s="67"/>
-      <c r="AN10" s="67"/>
-      <c r="AO10" s="68"/>
-      <c r="AP10" s="104"/>
-      <c r="AQ10" s="127"/>
+      <c r="AM10" s="68"/>
+      <c r="AN10" s="68"/>
+      <c r="AO10" s="69"/>
+      <c r="AP10" s="106"/>
       <c r="AR10" s="6"/>
-      <c r="AS10" s="127"/>
-      <c r="AT10" s="127"/>
-      <c r="AU10" s="127"/>
-      <c r="AV10" s="127"/>
       <c r="AW10" s="13"/>
     </row>
     <row r="11" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
@@ -3673,52 +3703,43 @@
         <v>10</v>
       </c>
       <c r="B11" s="12"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
       <c r="G11" s="5"/>
-      <c r="H11" s="69"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="61"/>
-      <c r="N11" s="129"/>
-      <c r="O11" s="129"/>
-      <c r="P11" s="129"/>
-      <c r="Q11" s="129"/>
-      <c r="R11" s="129"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="69"/>
-      <c r="U11" s="70"/>
-      <c r="V11" s="69"/>
-      <c r="W11" s="70"/>
-      <c r="X11" s="69"/>
-      <c r="Y11" s="128"/>
-      <c r="Z11" s="70"/>
-      <c r="AA11" s="69"/>
-      <c r="AB11" s="128"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="70"/>
-      <c r="AE11" s="69"/>
-      <c r="AF11" s="128"/>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="69"/>
-      <c r="AI11" s="128"/>
-      <c r="AJ11" s="128"/>
-      <c r="AK11" s="70"/>
-      <c r="AL11" s="69"/>
-      <c r="AM11" s="128"/>
-      <c r="AN11" s="128"/>
-      <c r="AO11" s="70"/>
-      <c r="AP11" s="104"/>
-      <c r="AQ11" s="127"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="72"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="112"/>
+      <c r="L11" s="113"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="102"/>
+      <c r="T11" s="70"/>
+      <c r="U11" s="72"/>
+      <c r="V11" s="70"/>
+      <c r="W11" s="72"/>
+      <c r="X11" s="70"/>
+      <c r="Y11" s="71"/>
+      <c r="Z11" s="72"/>
+      <c r="AA11" s="70"/>
+      <c r="AB11" s="71"/>
+      <c r="AC11" s="71"/>
+      <c r="AD11" s="72"/>
+      <c r="AE11" s="70"/>
+      <c r="AF11" s="71"/>
+      <c r="AG11" s="72"/>
+      <c r="AH11" s="70"/>
+      <c r="AI11" s="71"/>
+      <c r="AJ11" s="71"/>
+      <c r="AK11" s="72"/>
+      <c r="AL11" s="70"/>
+      <c r="AM11" s="71"/>
+      <c r="AN11" s="71"/>
+      <c r="AO11" s="72"/>
+      <c r="AP11" s="106"/>
       <c r="AR11" s="6"/>
-      <c r="AS11" s="127"/>
-      <c r="AT11" s="127"/>
-      <c r="AU11" s="127"/>
-      <c r="AV11" s="127"/>
       <c r="AW11" s="13"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.45">
@@ -3727,52 +3748,43 @@
         <v>11</v>
       </c>
       <c r="B12" s="12"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="127"/>
-      <c r="E12" s="127"/>
-      <c r="F12" s="127"/>
       <c r="G12" s="5"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="64"/>
-      <c r="O12" s="64"/>
-      <c r="P12" s="64"/>
-      <c r="Q12" s="64"/>
-      <c r="R12" s="64"/>
-      <c r="S12" s="65"/>
-      <c r="T12" s="71"/>
-      <c r="U12" s="73"/>
-      <c r="V12" s="71"/>
-      <c r="W12" s="73"/>
-      <c r="X12" s="71"/>
-      <c r="Y12" s="72"/>
-      <c r="Z12" s="73"/>
-      <c r="AA12" s="71"/>
-      <c r="AB12" s="72"/>
-      <c r="AC12" s="72"/>
-      <c r="AD12" s="73"/>
-      <c r="AE12" s="71"/>
-      <c r="AF12" s="72"/>
-      <c r="AG12" s="73"/>
-      <c r="AH12" s="71"/>
-      <c r="AI12" s="72"/>
-      <c r="AJ12" s="72"/>
-      <c r="AK12" s="73"/>
-      <c r="AL12" s="71"/>
-      <c r="AM12" s="72"/>
-      <c r="AN12" s="72"/>
-      <c r="AO12" s="73"/>
-      <c r="AP12" s="104"/>
-      <c r="AQ12" s="127"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="75"/>
+      <c r="J12" s="114"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
+      <c r="S12" s="105"/>
+      <c r="T12" s="73"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="73"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="73"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="75"/>
+      <c r="AA12" s="73"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="75"/>
+      <c r="AE12" s="73"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="75"/>
+      <c r="AH12" s="73"/>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="75"/>
+      <c r="AL12" s="73"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="75"/>
+      <c r="AP12" s="106"/>
       <c r="AR12" s="6"/>
-      <c r="AS12" s="127"/>
-      <c r="AT12" s="127"/>
-      <c r="AU12" s="127"/>
-      <c r="AV12" s="127"/>
       <c r="AW12" s="13"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.45">
@@ -3781,75 +3793,66 @@
         <v>12</v>
       </c>
       <c r="B13" s="12"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="127"/>
-      <c r="F13" s="127"/>
       <c r="G13" s="5"/>
-      <c r="H13" s="66">
+      <c r="H13" s="67">
         <f>H10 + 1</f>
         <v>3</v>
       </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="80" t="s">
+      <c r="I13" s="69"/>
+      <c r="J13" s="126" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="81"/>
-      <c r="L13" s="82"/>
-      <c r="M13" s="58" t="s">
+      <c r="K13" s="127"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="97" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="59"/>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="59"/>
-      <c r="S13" s="60"/>
-      <c r="T13" s="66">
+      <c r="N13" s="98"/>
+      <c r="O13" s="98"/>
+      <c r="P13" s="98"/>
+      <c r="Q13" s="98"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="99"/>
+      <c r="T13" s="67">
         <v>14</v>
       </c>
-      <c r="U13" s="68"/>
-      <c r="V13" s="66">
+      <c r="U13" s="69"/>
+      <c r="V13" s="67">
         <v>13</v>
       </c>
-      <c r="W13" s="68"/>
-      <c r="X13" s="66" t="str">
+      <c r="W13" s="69"/>
+      <c r="X13" s="67" t="str">
         <f t="shared" ref="X13" si="3">ROUND(( T13 / (T13 + V13) ) * 100,0) &amp; "%"</f>
         <v>52%</v>
       </c>
-      <c r="Y13" s="67"/>
-      <c r="Z13" s="68"/>
-      <c r="AA13" s="66">
+      <c r="Y13" s="68"/>
+      <c r="Z13" s="69"/>
+      <c r="AA13" s="67">
         <v>610</v>
       </c>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="68"/>
-      <c r="AE13" s="88" t="str">
+      <c r="AB13" s="68"/>
+      <c r="AC13" s="68"/>
+      <c r="AD13" s="69"/>
+      <c r="AE13" s="117" t="str">
         <f>IF(AA13-AH13&lt;0," - ",IF(AA13-AH13=0,""," + ")) &amp; ABS(AA13-AH13)</f>
         <v xml:space="preserve"> - 100</v>
       </c>
-      <c r="AF13" s="89"/>
-      <c r="AG13" s="90"/>
-      <c r="AH13" s="66">
+      <c r="AF13" s="118"/>
+      <c r="AG13" s="119"/>
+      <c r="AH13" s="67">
         <v>710</v>
       </c>
-      <c r="AI13" s="67"/>
-      <c r="AJ13" s="67"/>
-      <c r="AK13" s="68"/>
-      <c r="AL13" s="66">
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="68"/>
+      <c r="AK13" s="69"/>
+      <c r="AL13" s="67">
         <v>614</v>
       </c>
-      <c r="AM13" s="67"/>
-      <c r="AN13" s="67"/>
-      <c r="AO13" s="68"/>
-      <c r="AP13" s="104"/>
-      <c r="AQ13" s="127"/>
+      <c r="AM13" s="68"/>
+      <c r="AN13" s="68"/>
+      <c r="AO13" s="69"/>
+      <c r="AP13" s="106"/>
       <c r="AR13" s="6"/>
-      <c r="AS13" s="127"/>
-      <c r="AT13" s="127"/>
-      <c r="AU13" s="127"/>
-      <c r="AV13" s="127"/>
       <c r="AW13" s="13"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.45">
@@ -3858,52 +3861,43 @@
         <v>13</v>
       </c>
       <c r="B14" s="12"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
       <c r="G14" s="5"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="83"/>
-      <c r="K14" s="135"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="61"/>
-      <c r="N14" s="129"/>
-      <c r="O14" s="129"/>
-      <c r="P14" s="129"/>
-      <c r="Q14" s="129"/>
-      <c r="R14" s="129"/>
-      <c r="S14" s="62"/>
-      <c r="T14" s="69"/>
-      <c r="U14" s="70"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="70"/>
-      <c r="X14" s="69"/>
-      <c r="Y14" s="128"/>
-      <c r="Z14" s="70"/>
-      <c r="AA14" s="69"/>
-      <c r="AB14" s="128"/>
-      <c r="AC14" s="128"/>
-      <c r="AD14" s="70"/>
-      <c r="AE14" s="91"/>
-      <c r="AF14" s="136"/>
-      <c r="AG14" s="92"/>
-      <c r="AH14" s="69"/>
-      <c r="AI14" s="128"/>
-      <c r="AJ14" s="128"/>
-      <c r="AK14" s="70"/>
-      <c r="AL14" s="69"/>
-      <c r="AM14" s="128"/>
-      <c r="AN14" s="128"/>
-      <c r="AO14" s="70"/>
-      <c r="AP14" s="104"/>
-      <c r="AQ14" s="127"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="129"/>
+      <c r="K14" s="130"/>
+      <c r="L14" s="131"/>
+      <c r="M14" s="100"/>
+      <c r="N14" s="101"/>
+      <c r="O14" s="101"/>
+      <c r="P14" s="101"/>
+      <c r="Q14" s="101"/>
+      <c r="R14" s="101"/>
+      <c r="S14" s="102"/>
+      <c r="T14" s="70"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="70"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="70"/>
+      <c r="Y14" s="71"/>
+      <c r="Z14" s="72"/>
+      <c r="AA14" s="70"/>
+      <c r="AB14" s="71"/>
+      <c r="AC14" s="71"/>
+      <c r="AD14" s="72"/>
+      <c r="AE14" s="120"/>
+      <c r="AF14" s="121"/>
+      <c r="AG14" s="122"/>
+      <c r="AH14" s="70"/>
+      <c r="AI14" s="71"/>
+      <c r="AJ14" s="71"/>
+      <c r="AK14" s="72"/>
+      <c r="AL14" s="70"/>
+      <c r="AM14" s="71"/>
+      <c r="AN14" s="71"/>
+      <c r="AO14" s="72"/>
+      <c r="AP14" s="106"/>
       <c r="AR14" s="6"/>
-      <c r="AS14" s="127"/>
-      <c r="AT14" s="127"/>
-      <c r="AU14" s="127"/>
-      <c r="AV14" s="127"/>
       <c r="AW14" s="13"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.45">
@@ -3912,52 +3906,43 @@
         <v>14</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="127"/>
-      <c r="F15" s="127"/>
       <c r="G15" s="5"/>
-      <c r="H15" s="71"/>
-      <c r="I15" s="73"/>
-      <c r="J15" s="85"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="87"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="71"/>
-      <c r="U15" s="73"/>
-      <c r="V15" s="71"/>
-      <c r="W15" s="73"/>
-      <c r="X15" s="71"/>
-      <c r="Y15" s="72"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="71"/>
-      <c r="AB15" s="72"/>
-      <c r="AC15" s="72"/>
-      <c r="AD15" s="73"/>
-      <c r="AE15" s="93"/>
-      <c r="AF15" s="94"/>
-      <c r="AG15" s="95"/>
-      <c r="AH15" s="71"/>
-      <c r="AI15" s="72"/>
-      <c r="AJ15" s="72"/>
-      <c r="AK15" s="73"/>
-      <c r="AL15" s="71"/>
-      <c r="AM15" s="72"/>
-      <c r="AN15" s="72"/>
-      <c r="AO15" s="73"/>
-      <c r="AP15" s="105"/>
-      <c r="AQ15" s="127"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="132"/>
+      <c r="K15" s="133"/>
+      <c r="L15" s="134"/>
+      <c r="M15" s="103"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="104"/>
+      <c r="P15" s="104"/>
+      <c r="Q15" s="104"/>
+      <c r="R15" s="104"/>
+      <c r="S15" s="105"/>
+      <c r="T15" s="73"/>
+      <c r="U15" s="75"/>
+      <c r="V15" s="73"/>
+      <c r="W15" s="75"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="74"/>
+      <c r="Z15" s="75"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="75"/>
+      <c r="AE15" s="123"/>
+      <c r="AF15" s="124"/>
+      <c r="AG15" s="125"/>
+      <c r="AH15" s="73"/>
+      <c r="AI15" s="74"/>
+      <c r="AJ15" s="74"/>
+      <c r="AK15" s="75"/>
+      <c r="AL15" s="73"/>
+      <c r="AM15" s="74"/>
+      <c r="AN15" s="74"/>
+      <c r="AO15" s="75"/>
+      <c r="AP15" s="107"/>
       <c r="AR15" s="6"/>
-      <c r="AS15" s="127"/>
-      <c r="AT15" s="127"/>
-      <c r="AU15" s="127"/>
-      <c r="AV15" s="127"/>
       <c r="AW15" s="13"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.45">
@@ -3966,10 +3951,6 @@
         <v>15</v>
       </c>
       <c r="B16" s="12"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
       <c r="G16" s="7"/>
       <c r="H16" s="8"/>
       <c r="I16" s="8"/>
@@ -4008,10 +3989,6 @@
       <c r="AP16" s="8"/>
       <c r="AQ16" s="8"/>
       <c r="AR16" s="9"/>
-      <c r="AS16" s="127"/>
-      <c r="AT16" s="127"/>
-      <c r="AU16" s="127"/>
-      <c r="AV16" s="127"/>
       <c r="AW16" s="13"/>
     </row>
     <row r="17" spans="1:49" ht="6" customHeight="1" x14ac:dyDescent="0.45">
@@ -4020,52 +3997,6 @@
         <v>16</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="127"/>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="127"/>
-      <c r="L17" s="127"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="127"/>
-      <c r="O17" s="127"/>
-      <c r="P17" s="127"/>
-      <c r="Q17" s="127"/>
-      <c r="R17" s="127"/>
-      <c r="S17" s="127"/>
-      <c r="T17" s="127"/>
-      <c r="U17" s="127"/>
-      <c r="V17" s="127"/>
-      <c r="W17" s="127"/>
-      <c r="X17" s="127"/>
-      <c r="Y17" s="127"/>
-      <c r="Z17" s="127"/>
-      <c r="AA17" s="127"/>
-      <c r="AB17" s="127"/>
-      <c r="AC17" s="127"/>
-      <c r="AD17" s="127"/>
-      <c r="AE17" s="127"/>
-      <c r="AF17" s="127"/>
-      <c r="AG17" s="127"/>
-      <c r="AH17" s="127"/>
-      <c r="AI17" s="127"/>
-      <c r="AJ17" s="127"/>
-      <c r="AK17" s="127"/>
-      <c r="AL17" s="127"/>
-      <c r="AM17" s="127"/>
-      <c r="AN17" s="127"/>
-      <c r="AO17" s="127"/>
-      <c r="AP17" s="127"/>
-      <c r="AQ17" s="127"/>
-      <c r="AR17" s="127"/>
-      <c r="AS17" s="127"/>
-      <c r="AT17" s="127"/>
-      <c r="AU17" s="127"/>
-      <c r="AV17" s="127"/>
       <c r="AW17" s="13"/>
     </row>
     <row r="18" spans="1:49" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -4074,10 +4005,6 @@
         <v>17</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="127"/>
-      <c r="F18" s="127"/>
       <c r="G18" s="2"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -4116,10 +4043,6 @@
       <c r="AP18" s="3"/>
       <c r="AQ18" s="3"/>
       <c r="AR18" s="4"/>
-      <c r="AS18" s="127"/>
-      <c r="AT18" s="127"/>
-      <c r="AU18" s="127"/>
-      <c r="AV18" s="127"/>
       <c r="AW18" s="13"/>
     </row>
     <row r="19" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -4128,62 +4051,28 @@
         <v>18</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="127"/>
-      <c r="E19" s="127"/>
-      <c r="F19" s="127"/>
       <c r="G19" s="5"/>
-      <c r="H19" s="126" t="s">
+      <c r="H19" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="I19" s="126" t="s">
+      <c r="I19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="127"/>
-      <c r="K19" s="127"/>
-      <c r="L19" s="127"/>
-      <c r="M19" s="131" t="s">
+      <c r="M19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="N19" s="131"/>
-      <c r="O19" s="131"/>
-      <c r="P19" s="131"/>
-      <c r="Q19" s="120" t="s">
+      <c r="Q19" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="R19" s="121"/>
-      <c r="S19" s="121"/>
-      <c r="T19" s="121"/>
-      <c r="U19" s="122"/>
-      <c r="V19" s="42" t="s">
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="43"/>
+      <c r="V19" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="W19" s="43"/>
-      <c r="X19" s="127"/>
-      <c r="Y19" s="127"/>
-      <c r="Z19" s="127"/>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
-      <c r="AC19" s="127"/>
-      <c r="AD19" s="127"/>
-      <c r="AE19" s="127"/>
-      <c r="AF19" s="127"/>
-      <c r="AG19" s="127"/>
-      <c r="AH19" s="127"/>
-      <c r="AI19" s="127"/>
-      <c r="AJ19" s="127"/>
-      <c r="AK19" s="127"/>
-      <c r="AL19" s="127"/>
-      <c r="AM19" s="127"/>
-      <c r="AN19" s="127"/>
-      <c r="AO19" s="127"/>
-      <c r="AP19" s="127"/>
-      <c r="AQ19" s="127"/>
+      <c r="W19" s="45"/>
       <c r="AR19" s="6"/>
-      <c r="AS19" s="127"/>
-      <c r="AT19" s="127"/>
-      <c r="AU19" s="127"/>
-      <c r="AV19" s="127"/>
       <c r="AW19" s="13"/>
     </row>
     <row r="20" spans="1:49" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
@@ -4192,52 +4081,8 @@
         <v>19</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
       <c r="G20" s="5"/>
-      <c r="H20" s="127"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="127"/>
-      <c r="L20" s="127"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="127"/>
-      <c r="O20" s="127"/>
-      <c r="P20" s="127"/>
-      <c r="Q20" s="127"/>
-      <c r="R20" s="127"/>
-      <c r="S20" s="127"/>
-      <c r="T20" s="127"/>
-      <c r="U20" s="127"/>
-      <c r="V20" s="127"/>
-      <c r="W20" s="127"/>
-      <c r="X20" s="127"/>
-      <c r="Y20" s="127"/>
-      <c r="Z20" s="127"/>
-      <c r="AA20" s="127"/>
-      <c r="AB20" s="127"/>
-      <c r="AC20" s="127"/>
-      <c r="AD20" s="127"/>
-      <c r="AE20" s="127"/>
-      <c r="AF20" s="127"/>
-      <c r="AG20" s="127"/>
-      <c r="AH20" s="127"/>
-      <c r="AI20" s="127"/>
-      <c r="AJ20" s="127"/>
-      <c r="AK20" s="127"/>
-      <c r="AL20" s="127"/>
-      <c r="AM20" s="127"/>
-      <c r="AN20" s="127"/>
-      <c r="AO20" s="127"/>
-      <c r="AP20" s="127"/>
-      <c r="AQ20" s="127"/>
       <c r="AR20" s="6"/>
-      <c r="AS20" s="127"/>
-      <c r="AT20" s="127"/>
-      <c r="AU20" s="127"/>
-      <c r="AV20" s="127"/>
       <c r="AW20" s="13"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.45">
@@ -4246,27 +4091,21 @@
         <v>20</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="127"/>
-      <c r="F21" s="127"/>
       <c r="G21" s="5"/>
-      <c r="H21" s="50" t="s">
+      <c r="H21" s="88" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="51"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="58" t="s">
+      <c r="I21" s="89"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="97" t="s">
         <v>14</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="60"/>
-      <c r="R21" s="127"/>
-      <c r="S21" s="127"/>
+      <c r="L21" s="98"/>
+      <c r="M21" s="98"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="99"/>
       <c r="T21" s="10" t="s">
         <v>17</v>
       </c>
@@ -4287,19 +4126,14 @@
       <c r="AI21" s="11"/>
       <c r="AJ21" s="11"/>
       <c r="AK21" s="11"/>
-      <c r="AL21" s="123" t="s">
+      <c r="AL21" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM21" s="124"/>
-      <c r="AN21" s="124"/>
-      <c r="AO21" s="124"/>
-      <c r="AP21" s="125"/>
-      <c r="AQ21" s="127"/>
+      <c r="AM21" s="37"/>
+      <c r="AN21" s="37"/>
+      <c r="AO21" s="37"/>
+      <c r="AP21" s="38"/>
       <c r="AR21" s="6"/>
-      <c r="AS21" s="127"/>
-      <c r="AT21" s="127"/>
-      <c r="AU21" s="127"/>
-      <c r="AV21" s="127"/>
       <c r="AW21" s="13"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.45">
@@ -4308,52 +4142,41 @@
         <v>21</v>
       </c>
       <c r="B22" s="12"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="61"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
-      <c r="O22" s="129"/>
-      <c r="P22" s="129"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="127"/>
-      <c r="S22" s="127"/>
-      <c r="T22" s="37"/>
-      <c r="U22" s="130"/>
-      <c r="V22" s="130"/>
-      <c r="W22" s="130"/>
-      <c r="X22" s="130"/>
-      <c r="Y22" s="130"/>
-      <c r="Z22" s="130"/>
-      <c r="AA22" s="130"/>
-      <c r="AB22" s="130"/>
-      <c r="AC22" s="130"/>
-      <c r="AD22" s="130"/>
-      <c r="AE22" s="130"/>
-      <c r="AF22" s="130"/>
-      <c r="AG22" s="130"/>
-      <c r="AH22" s="130"/>
-      <c r="AI22" s="130"/>
-      <c r="AJ22" s="130"/>
-      <c r="AK22" s="130"/>
-      <c r="AL22" s="130"/>
-      <c r="AM22" s="130"/>
-      <c r="AN22" s="130"/>
-      <c r="AO22" s="130"/>
-      <c r="AP22" s="38"/>
-      <c r="AQ22" s="127"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="93"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="101"/>
+      <c r="M22" s="101"/>
+      <c r="N22" s="101"/>
+      <c r="O22" s="101"/>
+      <c r="P22" s="101"/>
+      <c r="Q22" s="102"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="136"/>
+      <c r="V22" s="136"/>
+      <c r="W22" s="136"/>
+      <c r="X22" s="136"/>
+      <c r="Y22" s="136"/>
+      <c r="Z22" s="136"/>
+      <c r="AA22" s="136"/>
+      <c r="AB22" s="136"/>
+      <c r="AC22" s="136"/>
+      <c r="AD22" s="136"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="136"/>
+      <c r="AG22" s="136"/>
+      <c r="AH22" s="136"/>
+      <c r="AI22" s="136"/>
+      <c r="AJ22" s="136"/>
+      <c r="AK22" s="136"/>
+      <c r="AL22" s="136"/>
+      <c r="AM22" s="136"/>
+      <c r="AN22" s="136"/>
+      <c r="AO22" s="136"/>
+      <c r="AP22" s="137"/>
       <c r="AR22" s="6"/>
-      <c r="AS22" s="127"/>
-      <c r="AT22" s="127"/>
-      <c r="AU22" s="127"/>
-      <c r="AV22" s="127"/>
       <c r="AW22" s="13"/>
     </row>
     <row r="23" spans="1:49" x14ac:dyDescent="0.45">
@@ -4362,52 +4185,41 @@
         <v>22</v>
       </c>
       <c r="B23" s="12"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
       <c r="G23" s="5"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="64"/>
-      <c r="M23" s="64"/>
-      <c r="N23" s="64"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="65"/>
-      <c r="R23" s="127"/>
-      <c r="S23" s="127"/>
-      <c r="T23" s="37"/>
-      <c r="U23" s="130"/>
-      <c r="V23" s="130"/>
-      <c r="W23" s="130"/>
-      <c r="X23" s="130"/>
-      <c r="Y23" s="130"/>
-      <c r="Z23" s="130"/>
-      <c r="AA23" s="130"/>
-      <c r="AB23" s="130"/>
-      <c r="AC23" s="130"/>
-      <c r="AD23" s="130"/>
-      <c r="AE23" s="130"/>
-      <c r="AF23" s="130"/>
-      <c r="AG23" s="130"/>
-      <c r="AH23" s="130"/>
-      <c r="AI23" s="130"/>
-      <c r="AJ23" s="130"/>
-      <c r="AK23" s="130"/>
-      <c r="AL23" s="130"/>
-      <c r="AM23" s="130"/>
-      <c r="AN23" s="130"/>
-      <c r="AO23" s="130"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="127"/>
+      <c r="H23" s="94"/>
+      <c r="I23" s="95"/>
+      <c r="J23" s="96"/>
+      <c r="K23" s="103"/>
+      <c r="L23" s="104"/>
+      <c r="M23" s="104"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="105"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="136"/>
+      <c r="V23" s="136"/>
+      <c r="W23" s="136"/>
+      <c r="X23" s="136"/>
+      <c r="Y23" s="136"/>
+      <c r="Z23" s="136"/>
+      <c r="AA23" s="136"/>
+      <c r="AB23" s="136"/>
+      <c r="AC23" s="136"/>
+      <c r="AD23" s="136"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="136"/>
+      <c r="AG23" s="136"/>
+      <c r="AH23" s="136"/>
+      <c r="AI23" s="136"/>
+      <c r="AJ23" s="136"/>
+      <c r="AK23" s="136"/>
+      <c r="AL23" s="136"/>
+      <c r="AM23" s="136"/>
+      <c r="AN23" s="136"/>
+      <c r="AO23" s="136"/>
+      <c r="AP23" s="137"/>
       <c r="AR23" s="6"/>
-      <c r="AS23" s="127"/>
-      <c r="AT23" s="127"/>
-      <c r="AU23" s="127"/>
-      <c r="AV23" s="127"/>
       <c r="AW23" s="13"/>
     </row>
     <row r="24" spans="1:49" x14ac:dyDescent="0.45">
@@ -4416,52 +4228,31 @@
         <v>23</v>
       </c>
       <c r="B24" s="12"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
       <c r="G24" s="5"/>
-      <c r="H24" s="127"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="127"/>
-      <c r="L24" s="127"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="127"/>
-      <c r="O24" s="127"/>
-      <c r="P24" s="127"/>
-      <c r="Q24" s="127"/>
-      <c r="R24" s="127"/>
-      <c r="S24" s="127"/>
-      <c r="T24" s="37"/>
-      <c r="U24" s="130"/>
-      <c r="V24" s="130"/>
-      <c r="W24" s="130"/>
-      <c r="X24" s="130"/>
-      <c r="Y24" s="130"/>
-      <c r="Z24" s="130"/>
-      <c r="AA24" s="130"/>
-      <c r="AB24" s="130"/>
-      <c r="AC24" s="130"/>
-      <c r="AD24" s="130"/>
-      <c r="AE24" s="130"/>
-      <c r="AF24" s="130"/>
-      <c r="AG24" s="130"/>
-      <c r="AH24" s="130"/>
-      <c r="AI24" s="130"/>
-      <c r="AJ24" s="130"/>
-      <c r="AK24" s="130"/>
-      <c r="AL24" s="130"/>
-      <c r="AM24" s="130"/>
-      <c r="AN24" s="130"/>
-      <c r="AO24" s="130"/>
-      <c r="AP24" s="38"/>
-      <c r="AQ24" s="127"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="136"/>
+      <c r="V24" s="136"/>
+      <c r="W24" s="136"/>
+      <c r="X24" s="136"/>
+      <c r="Y24" s="136"/>
+      <c r="Z24" s="136"/>
+      <c r="AA24" s="136"/>
+      <c r="AB24" s="136"/>
+      <c r="AC24" s="136"/>
+      <c r="AD24" s="136"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="136"/>
+      <c r="AG24" s="136"/>
+      <c r="AH24" s="136"/>
+      <c r="AI24" s="136"/>
+      <c r="AJ24" s="136"/>
+      <c r="AK24" s="136"/>
+      <c r="AL24" s="136"/>
+      <c r="AM24" s="136"/>
+      <c r="AN24" s="136"/>
+      <c r="AO24" s="136"/>
+      <c r="AP24" s="137"/>
       <c r="AR24" s="6"/>
-      <c r="AS24" s="127"/>
-      <c r="AT24" s="127"/>
-      <c r="AU24" s="127"/>
-      <c r="AV24" s="127"/>
       <c r="AW24" s="13"/>
     </row>
     <row r="25" spans="1:49" x14ac:dyDescent="0.45">
@@ -4470,54 +4261,41 @@
         <v>24</v>
       </c>
       <c r="B25" s="12"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="127"/>
-      <c r="E25" s="127"/>
-      <c r="F25" s="127"/>
       <c r="G25" s="5"/>
-      <c r="J25" s="44" t="s">
+      <c r="J25" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="K25" s="45"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="74">
+      <c r="K25" s="53"/>
+      <c r="L25" s="54"/>
+      <c r="M25" s="55">
         <v>30</v>
       </c>
-      <c r="N25" s="75"/>
-      <c r="O25" s="76"/>
-      <c r="P25" s="127"/>
-      <c r="Q25" s="127"/>
-      <c r="R25" s="127"/>
-      <c r="S25" s="127"/>
-      <c r="T25" s="39"/>
-      <c r="U25" s="40"/>
-      <c r="V25" s="40"/>
-      <c r="W25" s="40"/>
-      <c r="X25" s="40"/>
-      <c r="Y25" s="40"/>
-      <c r="Z25" s="40"/>
-      <c r="AA25" s="40"/>
-      <c r="AB25" s="40"/>
-      <c r="AC25" s="40"/>
-      <c r="AD25" s="40"/>
-      <c r="AE25" s="40"/>
-      <c r="AF25" s="40"/>
-      <c r="AG25" s="40"/>
-      <c r="AH25" s="40"/>
-      <c r="AI25" s="40"/>
-      <c r="AJ25" s="40"/>
-      <c r="AK25" s="40"/>
-      <c r="AL25" s="40"/>
-      <c r="AM25" s="40"/>
-      <c r="AN25" s="40"/>
-      <c r="AO25" s="40"/>
-      <c r="AP25" s="41"/>
-      <c r="AQ25" s="127"/>
+      <c r="N25" s="56"/>
+      <c r="O25" s="57"/>
+      <c r="T25" s="138"/>
+      <c r="U25" s="139"/>
+      <c r="V25" s="139"/>
+      <c r="W25" s="139"/>
+      <c r="X25" s="139"/>
+      <c r="Y25" s="139"/>
+      <c r="Z25" s="139"/>
+      <c r="AA25" s="139"/>
+      <c r="AB25" s="139"/>
+      <c r="AC25" s="139"/>
+      <c r="AD25" s="139"/>
+      <c r="AE25" s="139"/>
+      <c r="AF25" s="139"/>
+      <c r="AG25" s="139"/>
+      <c r="AH25" s="139"/>
+      <c r="AI25" s="139"/>
+      <c r="AJ25" s="139"/>
+      <c r="AK25" s="139"/>
+      <c r="AL25" s="139"/>
+      <c r="AM25" s="139"/>
+      <c r="AN25" s="139"/>
+      <c r="AO25" s="139"/>
+      <c r="AP25" s="140"/>
       <c r="AR25" s="6"/>
-      <c r="AS25" s="127"/>
-      <c r="AT25" s="127"/>
-      <c r="AU25" s="127"/>
-      <c r="AV25" s="127"/>
       <c r="AW25" s="13"/>
     </row>
     <row r="26" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -4526,54 +4304,18 @@
         <v>25</v>
       </c>
       <c r="B26" s="12"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="127"/>
-      <c r="F26" s="127"/>
       <c r="G26" s="5"/>
-      <c r="J26" s="44" t="s">
+      <c r="J26" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="K26" s="45"/>
-      <c r="L26" s="46"/>
-      <c r="M26" s="74">
+      <c r="K26" s="53"/>
+      <c r="L26" s="54"/>
+      <c r="M26" s="55">
         <v>20</v>
       </c>
-      <c r="N26" s="75"/>
-      <c r="O26" s="76"/>
-      <c r="P26" s="127"/>
-      <c r="Q26" s="127"/>
-      <c r="R26" s="127"/>
-      <c r="S26" s="127"/>
-      <c r="T26" s="127"/>
-      <c r="U26" s="127"/>
-      <c r="V26" s="127"/>
-      <c r="W26" s="127"/>
-      <c r="X26" s="127"/>
-      <c r="Y26" s="127"/>
-      <c r="Z26" s="127"/>
-      <c r="AA26" s="127"/>
-      <c r="AB26" s="127"/>
-      <c r="AC26" s="127"/>
-      <c r="AD26" s="127"/>
-      <c r="AE26" s="127"/>
-      <c r="AF26" s="127"/>
-      <c r="AG26" s="127"/>
-      <c r="AH26" s="127"/>
-      <c r="AI26" s="127"/>
-      <c r="AJ26" s="127"/>
-      <c r="AK26" s="127"/>
-      <c r="AL26" s="127"/>
-      <c r="AM26" s="127"/>
-      <c r="AN26" s="127"/>
-      <c r="AO26" s="127"/>
-      <c r="AP26" s="127"/>
-      <c r="AQ26" s="127"/>
+      <c r="N26" s="56"/>
+      <c r="O26" s="57"/>
       <c r="AR26" s="6"/>
-      <c r="AS26" s="127"/>
-      <c r="AT26" s="127"/>
-      <c r="AU26" s="127"/>
-      <c r="AV26" s="127"/>
       <c r="AW26" s="13"/>
     </row>
     <row r="27" spans="1:49" x14ac:dyDescent="0.45">
@@ -4582,25 +4324,17 @@
         <v>26</v>
       </c>
       <c r="B27" s="12"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="127"/>
-      <c r="F27" s="127"/>
       <c r="G27" s="5"/>
-      <c r="J27" s="44" t="s">
+      <c r="J27" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="45"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="77">
+      <c r="K27" s="53"/>
+      <c r="L27" s="54"/>
+      <c r="M27" s="58">
         <v>0.4</v>
       </c>
-      <c r="N27" s="78"/>
-      <c r="O27" s="79"/>
-      <c r="P27" s="127"/>
-      <c r="Q27" s="127"/>
-      <c r="R27" s="127"/>
-      <c r="S27" s="127"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="60"/>
       <c r="T27" s="10" t="s">
         <v>18</v>
       </c>
@@ -4621,19 +4355,14 @@
       <c r="AI27" s="11"/>
       <c r="AJ27" s="11"/>
       <c r="AK27" s="11"/>
-      <c r="AL27" s="123" t="s">
+      <c r="AL27" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="AM27" s="124"/>
-      <c r="AN27" s="124"/>
-      <c r="AO27" s="124"/>
-      <c r="AP27" s="125"/>
-      <c r="AQ27" s="127"/>
+      <c r="AM27" s="37"/>
+      <c r="AN27" s="37"/>
+      <c r="AO27" s="37"/>
+      <c r="AP27" s="38"/>
       <c r="AR27" s="6"/>
-      <c r="AS27" s="127"/>
-      <c r="AT27" s="127"/>
-      <c r="AU27" s="127"/>
-      <c r="AV27" s="127"/>
       <c r="AW27" s="13"/>
     </row>
     <row r="28" spans="1:49" x14ac:dyDescent="0.45">
@@ -4642,54 +4371,41 @@
         <v>27</v>
       </c>
       <c r="B28" s="12"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
       <c r="G28" s="5"/>
-      <c r="J28" s="44" t="s">
+      <c r="J28" s="52" t="s">
         <v>20</v>
       </c>
-      <c r="K28" s="45"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="47">
+      <c r="K28" s="53"/>
+      <c r="L28" s="54"/>
+      <c r="M28" s="61">
         <v>30</v>
       </c>
-      <c r="N28" s="48"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="127"/>
-      <c r="Q28" s="127"/>
-      <c r="R28" s="127"/>
-      <c r="S28" s="127"/>
-      <c r="T28" s="37"/>
-      <c r="U28" s="130"/>
-      <c r="V28" s="130"/>
-      <c r="W28" s="130"/>
-      <c r="X28" s="130"/>
-      <c r="Y28" s="130"/>
-      <c r="Z28" s="130"/>
-      <c r="AA28" s="130"/>
-      <c r="AB28" s="130"/>
-      <c r="AC28" s="130"/>
-      <c r="AD28" s="130"/>
-      <c r="AE28" s="130"/>
-      <c r="AF28" s="130"/>
-      <c r="AG28" s="130"/>
-      <c r="AH28" s="130"/>
-      <c r="AI28" s="130"/>
-      <c r="AJ28" s="130"/>
-      <c r="AK28" s="130"/>
-      <c r="AL28" s="130"/>
-      <c r="AM28" s="130"/>
-      <c r="AN28" s="130"/>
-      <c r="AO28" s="130"/>
-      <c r="AP28" s="38"/>
-      <c r="AQ28" s="127"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="63"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="136"/>
+      <c r="V28" s="136"/>
+      <c r="W28" s="136"/>
+      <c r="X28" s="136"/>
+      <c r="Y28" s="136"/>
+      <c r="Z28" s="136"/>
+      <c r="AA28" s="136"/>
+      <c r="AB28" s="136"/>
+      <c r="AC28" s="136"/>
+      <c r="AD28" s="136"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="136"/>
+      <c r="AG28" s="136"/>
+      <c r="AH28" s="136"/>
+      <c r="AI28" s="136"/>
+      <c r="AJ28" s="136"/>
+      <c r="AK28" s="136"/>
+      <c r="AL28" s="136"/>
+      <c r="AM28" s="136"/>
+      <c r="AN28" s="136"/>
+      <c r="AO28" s="136"/>
+      <c r="AP28" s="137"/>
       <c r="AR28" s="6"/>
-      <c r="AS28" s="127"/>
-      <c r="AT28" s="127"/>
-      <c r="AU28" s="127"/>
-      <c r="AV28" s="127"/>
       <c r="AW28" s="13"/>
     </row>
     <row r="29" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -4698,52 +4414,31 @@
         <v>28</v>
       </c>
       <c r="B29" s="12"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="127"/>
-      <c r="E29" s="127"/>
-      <c r="F29" s="127"/>
       <c r="G29" s="5"/>
-      <c r="H29" s="127"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="127"/>
-      <c r="L29" s="127"/>
-      <c r="M29" s="127"/>
-      <c r="N29" s="127"/>
-      <c r="O29" s="127"/>
-      <c r="P29" s="127"/>
-      <c r="Q29" s="127"/>
-      <c r="R29" s="127"/>
-      <c r="S29" s="127"/>
-      <c r="T29" s="37"/>
-      <c r="U29" s="130"/>
-      <c r="V29" s="130"/>
-      <c r="W29" s="130"/>
-      <c r="X29" s="130"/>
-      <c r="Y29" s="130"/>
-      <c r="Z29" s="130"/>
-      <c r="AA29" s="130"/>
-      <c r="AB29" s="130"/>
-      <c r="AC29" s="130"/>
-      <c r="AD29" s="130"/>
-      <c r="AE29" s="130"/>
-      <c r="AF29" s="130"/>
-      <c r="AG29" s="130"/>
-      <c r="AH29" s="130"/>
-      <c r="AI29" s="130"/>
-      <c r="AJ29" s="130"/>
-      <c r="AK29" s="130"/>
-      <c r="AL29" s="130"/>
-      <c r="AM29" s="130"/>
-      <c r="AN29" s="130"/>
-      <c r="AO29" s="130"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="127"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="136"/>
+      <c r="V29" s="136"/>
+      <c r="W29" s="136"/>
+      <c r="X29" s="136"/>
+      <c r="Y29" s="136"/>
+      <c r="Z29" s="136"/>
+      <c r="AA29" s="136"/>
+      <c r="AB29" s="136"/>
+      <c r="AC29" s="136"/>
+      <c r="AD29" s="136"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="136"/>
+      <c r="AG29" s="136"/>
+      <c r="AH29" s="136"/>
+      <c r="AI29" s="136"/>
+      <c r="AJ29" s="136"/>
+      <c r="AK29" s="136"/>
+      <c r="AL29" s="136"/>
+      <c r="AM29" s="136"/>
+      <c r="AN29" s="136"/>
+      <c r="AO29" s="136"/>
+      <c r="AP29" s="137"/>
       <c r="AR29" s="6"/>
-      <c r="AS29" s="127"/>
-      <c r="AT29" s="127"/>
-      <c r="AU29" s="127"/>
-      <c r="AV29" s="127"/>
       <c r="AW29" s="13"/>
     </row>
     <row r="30" spans="1:49" x14ac:dyDescent="0.45">
@@ -4752,54 +4447,39 @@
         <v>29</v>
       </c>
       <c r="B30" s="12"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="127"/>
-      <c r="F30" s="127"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="127"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="137" t="s">
+      <c r="J30" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="K30" s="138"/>
-      <c r="L30" s="138"/>
-      <c r="M30" s="138"/>
-      <c r="N30" s="138"/>
-      <c r="O30" s="139"/>
-      <c r="P30" s="127"/>
-      <c r="Q30" s="127"/>
-      <c r="R30" s="127"/>
-      <c r="S30" s="127"/>
-      <c r="T30" s="37"/>
-      <c r="U30" s="130"/>
-      <c r="V30" s="130"/>
-      <c r="W30" s="130"/>
-      <c r="X30" s="130"/>
-      <c r="Y30" s="130"/>
-      <c r="Z30" s="130"/>
-      <c r="AA30" s="130"/>
-      <c r="AB30" s="130"/>
-      <c r="AC30" s="130"/>
-      <c r="AD30" s="130"/>
-      <c r="AE30" s="130"/>
-      <c r="AF30" s="130"/>
-      <c r="AG30" s="130"/>
-      <c r="AH30" s="130"/>
-      <c r="AI30" s="130"/>
-      <c r="AJ30" s="130"/>
-      <c r="AK30" s="130"/>
-      <c r="AL30" s="130"/>
-      <c r="AM30" s="130"/>
-      <c r="AN30" s="130"/>
-      <c r="AO30" s="130"/>
-      <c r="AP30" s="38"/>
-      <c r="AQ30" s="127"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="48"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="136"/>
+      <c r="V30" s="136"/>
+      <c r="W30" s="136"/>
+      <c r="X30" s="136"/>
+      <c r="Y30" s="136"/>
+      <c r="Z30" s="136"/>
+      <c r="AA30" s="136"/>
+      <c r="AB30" s="136"/>
+      <c r="AC30" s="136"/>
+      <c r="AD30" s="136"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="136"/>
+      <c r="AG30" s="136"/>
+      <c r="AH30" s="136"/>
+      <c r="AI30" s="136"/>
+      <c r="AJ30" s="136"/>
+      <c r="AK30" s="136"/>
+      <c r="AL30" s="136"/>
+      <c r="AM30" s="136"/>
+      <c r="AN30" s="136"/>
+      <c r="AO30" s="136"/>
+      <c r="AP30" s="137"/>
       <c r="AR30" s="6"/>
-      <c r="AS30" s="127"/>
-      <c r="AT30" s="127"/>
-      <c r="AU30" s="127"/>
-      <c r="AV30" s="127"/>
       <c r="AW30" s="13"/>
     </row>
     <row r="31" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -4808,52 +4488,37 @@
         <v>30</v>
       </c>
       <c r="B31" s="12"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="127"/>
-      <c r="F31" s="127"/>
       <c r="G31" s="5"/>
-      <c r="H31" s="127"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="140"/>
-      <c r="K31" s="141"/>
-      <c r="L31" s="141"/>
-      <c r="M31" s="141"/>
-      <c r="N31" s="141"/>
-      <c r="O31" s="142"/>
-      <c r="P31" s="127"/>
-      <c r="Q31" s="127"/>
-      <c r="R31" s="127"/>
-      <c r="S31" s="127"/>
-      <c r="T31" s="39"/>
-      <c r="U31" s="40"/>
-      <c r="V31" s="40"/>
-      <c r="W31" s="40"/>
-      <c r="X31" s="40"/>
-      <c r="Y31" s="40"/>
-      <c r="Z31" s="40"/>
-      <c r="AA31" s="40"/>
-      <c r="AB31" s="40"/>
-      <c r="AC31" s="40"/>
-      <c r="AD31" s="40"/>
-      <c r="AE31" s="40"/>
-      <c r="AF31" s="40"/>
-      <c r="AG31" s="40"/>
-      <c r="AH31" s="40"/>
-      <c r="AI31" s="40"/>
-      <c r="AJ31" s="40"/>
-      <c r="AK31" s="40"/>
-      <c r="AL31" s="40"/>
-      <c r="AM31" s="40"/>
-      <c r="AN31" s="40"/>
-      <c r="AO31" s="40"/>
-      <c r="AP31" s="41"/>
-      <c r="AQ31" s="127"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
+      <c r="L31" s="50"/>
+      <c r="M31" s="50"/>
+      <c r="N31" s="50"/>
+      <c r="O31" s="51"/>
+      <c r="T31" s="138"/>
+      <c r="U31" s="139"/>
+      <c r="V31" s="139"/>
+      <c r="W31" s="139"/>
+      <c r="X31" s="139"/>
+      <c r="Y31" s="139"/>
+      <c r="Z31" s="139"/>
+      <c r="AA31" s="139"/>
+      <c r="AB31" s="139"/>
+      <c r="AC31" s="139"/>
+      <c r="AD31" s="139"/>
+      <c r="AE31" s="139"/>
+      <c r="AF31" s="139"/>
+      <c r="AG31" s="139"/>
+      <c r="AH31" s="139"/>
+      <c r="AI31" s="139"/>
+      <c r="AJ31" s="139"/>
+      <c r="AK31" s="139"/>
+      <c r="AL31" s="139"/>
+      <c r="AM31" s="139"/>
+      <c r="AN31" s="139"/>
+      <c r="AO31" s="139"/>
+      <c r="AP31" s="140"/>
       <c r="AR31" s="6"/>
-      <c r="AS31" s="127"/>
-      <c r="AT31" s="127"/>
-      <c r="AU31" s="127"/>
-      <c r="AV31" s="127"/>
       <c r="AW31" s="13"/>
     </row>
     <row r="32" spans="1:49" x14ac:dyDescent="0.45">
@@ -4862,10 +4527,6 @@
         <v>31</v>
       </c>
       <c r="B32" s="12"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
       <c r="G32" s="7"/>
       <c r="H32" s="8"/>
       <c r="I32" s="8"/>
@@ -4904,10 +4565,6 @@
       <c r="AP32" s="8"/>
       <c r="AQ32" s="8"/>
       <c r="AR32" s="9"/>
-      <c r="AS32" s="127"/>
-      <c r="AT32" s="127"/>
-      <c r="AU32" s="127"/>
-      <c r="AV32" s="127"/>
       <c r="AW32" s="13"/>
     </row>
     <row r="33" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
@@ -4965,7 +4622,54 @@
       <c r="AW33" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
+  <mergeCells count="62">
+    <mergeCell ref="AG4:AH4"/>
+    <mergeCell ref="H13:I15"/>
+    <mergeCell ref="J13:L15"/>
+    <mergeCell ref="M13:S15"/>
+    <mergeCell ref="T13:U15"/>
+    <mergeCell ref="V13:W15"/>
+    <mergeCell ref="X10:Z12"/>
+    <mergeCell ref="X13:Z15"/>
+    <mergeCell ref="AA10:AD12"/>
+    <mergeCell ref="AE10:AG12"/>
+    <mergeCell ref="AA13:AD15"/>
+    <mergeCell ref="AE13:AG15"/>
+    <mergeCell ref="H10:I12"/>
+    <mergeCell ref="J10:L12"/>
+    <mergeCell ref="M10:S12"/>
+    <mergeCell ref="T10:U12"/>
+    <mergeCell ref="V10:W12"/>
+    <mergeCell ref="AP6:AP15"/>
+    <mergeCell ref="AH7:AK9"/>
+    <mergeCell ref="AL7:AO9"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AL10:AO12"/>
+    <mergeCell ref="AH10:AK12"/>
+    <mergeCell ref="AH13:AK15"/>
+    <mergeCell ref="AL13:AO15"/>
+    <mergeCell ref="J7:L9"/>
+    <mergeCell ref="H7:I9"/>
+    <mergeCell ref="M7:S9"/>
+    <mergeCell ref="T7:U9"/>
+    <mergeCell ref="V7:W9"/>
+    <mergeCell ref="X7:Z9"/>
+    <mergeCell ref="AA7:AD9"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AK6"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AE7:AG9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="T6:U6"/>
+    <mergeCell ref="V6:W6"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="V4:W4"/>
+    <mergeCell ref="X4:Y4"/>
     <mergeCell ref="Q19:U19"/>
     <mergeCell ref="V19:W19"/>
     <mergeCell ref="J30:O31"/>
@@ -4977,52 +4681,6 @@
     <mergeCell ref="M26:O26"/>
     <mergeCell ref="M27:O27"/>
     <mergeCell ref="M28:O28"/>
-    <mergeCell ref="Q4:U4"/>
-    <mergeCell ref="AA4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:Y4"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="T6:U6"/>
-    <mergeCell ref="V6:W6"/>
-    <mergeCell ref="X7:Z9"/>
-    <mergeCell ref="AA7:AD9"/>
-    <mergeCell ref="AA6:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AK6"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AE7:AG9"/>
-    <mergeCell ref="J7:L9"/>
-    <mergeCell ref="H7:I9"/>
-    <mergeCell ref="M7:S9"/>
-    <mergeCell ref="T7:U9"/>
-    <mergeCell ref="V7:W9"/>
-    <mergeCell ref="AP6:AP15"/>
-    <mergeCell ref="AH7:AK9"/>
-    <mergeCell ref="AL7:AO9"/>
-    <mergeCell ref="AL6:AO6"/>
-    <mergeCell ref="AL10:AO12"/>
-    <mergeCell ref="AH10:AK12"/>
-    <mergeCell ref="AH13:AK15"/>
-    <mergeCell ref="AL13:AO15"/>
-    <mergeCell ref="H10:I12"/>
-    <mergeCell ref="J10:L12"/>
-    <mergeCell ref="M10:S12"/>
-    <mergeCell ref="T10:U12"/>
-    <mergeCell ref="V10:W12"/>
-    <mergeCell ref="X10:Z12"/>
-    <mergeCell ref="X13:Z15"/>
-    <mergeCell ref="AA10:AD12"/>
-    <mergeCell ref="AE10:AG12"/>
-    <mergeCell ref="AA13:AD15"/>
-    <mergeCell ref="AE13:AG15"/>
-    <mergeCell ref="H13:I15"/>
-    <mergeCell ref="J13:L15"/>
-    <mergeCell ref="M13:S15"/>
-    <mergeCell ref="T13:U15"/>
-    <mergeCell ref="V13:W15"/>
     <mergeCell ref="T22:AP25"/>
     <mergeCell ref="H21:J23"/>
     <mergeCell ref="K21:Q23"/>
@@ -5032,4 +4690,4466 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CB3657D-6499-42C3-9E8E-7B0DA461F73D}">
+  <dimension ref="A1:AW36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="33" width="2.59765625" style="1"/>
+    <col min="34" max="34" width="3.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="2.59765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="26">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26">
+        <f>B1 +1</f>
+        <v>2</v>
+      </c>
+      <c r="D1" s="26">
+        <f t="shared" ref="D1:AW1" si="0">C1 +1</f>
+        <v>3</v>
+      </c>
+      <c r="E1" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F1" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="U1" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V1" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="W1" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="X1" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Y1" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AA1" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AB1" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AC1" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AD1" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AE1" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AF1" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AG1" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AH1" s="1">
+        <f>AG1 +1</f>
+        <v>28</v>
+      </c>
+      <c r="AI1" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AK1" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AL1" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AM1" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AN1" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AO1" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AP1" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AR1" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AS1" s="26">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AT1" s="26">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AU1" s="26">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AV1" s="26">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AW1" s="26">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="34"/>
+    </row>
+    <row r="3" spans="1:49" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <f>A2 +1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="141"/>
+      <c r="AT3" s="141"/>
+      <c r="AU3" s="141"/>
+      <c r="AW3" s="13"/>
+    </row>
+    <row r="4" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A36" si="1">A3 +1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="154" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155"/>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="W4" s="45"/>
+      <c r="X4" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="156"/>
+      <c r="AA4" s="156"/>
+      <c r="AB4" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="AC4" s="155"/>
+      <c r="AD4" s="155"/>
+      <c r="AE4" s="155"/>
+      <c r="AF4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="AG4" s="42"/>
+      <c r="AH4" s="42"/>
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL4" s="45"/>
+      <c r="AM4" s="156"/>
+      <c r="AN4" s="156"/>
+      <c r="AO4" s="156"/>
+      <c r="AP4" s="156"/>
+      <c r="AQ4" s="156"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="141"/>
+      <c r="AT4" s="141"/>
+      <c r="AU4" s="141"/>
+      <c r="AW4" s="13"/>
+    </row>
+    <row r="5" spans="1:49" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="156"/>
+      <c r="R5" s="156"/>
+      <c r="S5" s="156"/>
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="156"/>
+      <c r="W5" s="156"/>
+      <c r="X5" s="156"/>
+      <c r="Y5" s="156"/>
+      <c r="Z5" s="156"/>
+      <c r="AA5" s="156"/>
+      <c r="AB5" s="156"/>
+      <c r="AC5" s="156"/>
+      <c r="AD5" s="156"/>
+      <c r="AE5" s="156"/>
+      <c r="AF5" s="156"/>
+      <c r="AG5" s="156"/>
+      <c r="AH5" s="156"/>
+      <c r="AI5" s="156"/>
+      <c r="AJ5" s="156"/>
+      <c r="AK5" s="156"/>
+      <c r="AL5" s="156"/>
+      <c r="AM5" s="156"/>
+      <c r="AN5" s="156"/>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="156"/>
+      <c r="AQ5" s="156"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="141"/>
+      <c r="AU5" s="141"/>
+      <c r="AW5" s="13"/>
+    </row>
+    <row r="6" spans="1:49" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="89"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="97" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" s="98"/>
+      <c r="M6" s="98"/>
+      <c r="N6" s="98"/>
+      <c r="O6" s="98"/>
+      <c r="P6" s="98"/>
+      <c r="Q6" s="99"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="53"/>
+      <c r="U6" s="54"/>
+      <c r="V6" s="55">
+        <v>30</v>
+      </c>
+      <c r="W6" s="56"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="156"/>
+      <c r="AC6" s="156"/>
+      <c r="AD6" s="156"/>
+      <c r="AE6" s="156"/>
+      <c r="AF6" s="156"/>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="156"/>
+      <c r="AI6" s="156"/>
+      <c r="AJ6" s="156"/>
+      <c r="AK6" s="156"/>
+      <c r="AL6" s="156"/>
+      <c r="AM6" s="156"/>
+      <c r="AN6" s="156"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="156"/>
+      <c r="AQ6" s="155"/>
+      <c r="AR6" s="6"/>
+      <c r="AW6" s="13"/>
+    </row>
+    <row r="7" spans="1:49" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="158"/>
+      <c r="N7" s="158"/>
+      <c r="O7" s="158"/>
+      <c r="P7" s="158"/>
+      <c r="Q7" s="102"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="53"/>
+      <c r="U7" s="54"/>
+      <c r="V7" s="55">
+        <v>20</v>
+      </c>
+      <c r="W7" s="56"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="156"/>
+      <c r="Z7" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA7" s="45"/>
+      <c r="AB7" s="156"/>
+      <c r="AC7" s="156"/>
+      <c r="AD7" s="156"/>
+      <c r="AE7" s="156"/>
+      <c r="AF7" s="156"/>
+      <c r="AG7" s="156"/>
+      <c r="AH7" s="156"/>
+      <c r="AI7" s="156"/>
+      <c r="AJ7" s="156"/>
+      <c r="AK7" s="156"/>
+      <c r="AL7" s="156"/>
+      <c r="AM7" s="156"/>
+      <c r="AN7" s="156"/>
+      <c r="AO7" s="156"/>
+      <c r="AP7" s="156"/>
+      <c r="AQ7" s="155"/>
+      <c r="AR7" s="6"/>
+      <c r="AW7" s="13"/>
+    </row>
+    <row r="8" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="95"/>
+      <c r="J8" s="96"/>
+      <c r="K8" s="103"/>
+      <c r="L8" s="104"/>
+      <c r="M8" s="104"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="104"/>
+      <c r="P8" s="104"/>
+      <c r="Q8" s="105"/>
+      <c r="R8" s="155"/>
+      <c r="S8" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="T8" s="53"/>
+      <c r="U8" s="54"/>
+      <c r="V8" s="55">
+        <v>20</v>
+      </c>
+      <c r="W8" s="56"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="156"/>
+      <c r="Z8" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA8" s="45"/>
+      <c r="AB8" s="156"/>
+      <c r="AC8" s="156"/>
+      <c r="AD8" s="156"/>
+      <c r="AE8" s="156"/>
+      <c r="AF8" s="156"/>
+      <c r="AG8" s="156"/>
+      <c r="AH8" s="156"/>
+      <c r="AI8" s="156"/>
+      <c r="AJ8" s="156"/>
+      <c r="AK8" s="156"/>
+      <c r="AL8" s="156"/>
+      <c r="AM8" s="156"/>
+      <c r="AN8" s="156"/>
+      <c r="AO8" s="156"/>
+      <c r="AP8" s="156"/>
+      <c r="AQ8" s="155"/>
+      <c r="AR8" s="6"/>
+      <c r="AW8" s="13"/>
+    </row>
+    <row r="9" spans="1:49" ht="4.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="E9" s="141"/>
+      <c r="F9" s="141"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
+      <c r="K9" s="156"/>
+      <c r="L9" s="156"/>
+      <c r="M9" s="156"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="156"/>
+      <c r="P9" s="156"/>
+      <c r="Q9" s="156"/>
+      <c r="R9" s="156"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="156"/>
+      <c r="W9" s="156"/>
+      <c r="X9" s="156"/>
+      <c r="Y9" s="156"/>
+      <c r="Z9" s="156"/>
+      <c r="AA9" s="156"/>
+      <c r="AB9" s="156"/>
+      <c r="AC9" s="156"/>
+      <c r="AD9" s="156"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="156"/>
+      <c r="AG9" s="156"/>
+      <c r="AH9" s="156"/>
+      <c r="AI9" s="156"/>
+      <c r="AJ9" s="156"/>
+      <c r="AK9" s="156"/>
+      <c r="AL9" s="156"/>
+      <c r="AM9" s="156"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="156"/>
+      <c r="AQ9" s="156"/>
+      <c r="AR9" s="6"/>
+      <c r="AS9" s="141"/>
+      <c r="AT9" s="141"/>
+      <c r="AU9" s="141"/>
+      <c r="AW9" s="13"/>
+    </row>
+    <row r="10" spans="1:49" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="141"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="I10" s="65"/>
+      <c r="J10" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="K10" s="66"/>
+      <c r="L10" s="65"/>
+      <c r="M10" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="N10" s="66"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="65"/>
+      <c r="T10" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="U10" s="65"/>
+      <c r="V10" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="65"/>
+      <c r="X10" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="165" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB10" s="166"/>
+      <c r="AC10" s="166"/>
+      <c r="AD10" s="166"/>
+      <c r="AE10" s="166"/>
+      <c r="AF10" s="166"/>
+      <c r="AG10" s="166"/>
+      <c r="AH10" s="166"/>
+      <c r="AI10" s="166"/>
+      <c r="AJ10" s="166"/>
+      <c r="AK10" s="166"/>
+      <c r="AL10" s="166"/>
+      <c r="AM10" s="166"/>
+      <c r="AN10" s="166"/>
+      <c r="AO10" s="166"/>
+      <c r="AP10" s="166"/>
+      <c r="AQ10" s="166"/>
+      <c r="AR10" s="6"/>
+      <c r="AS10" s="141"/>
+      <c r="AT10" s="141"/>
+      <c r="AU10" s="141"/>
+      <c r="AW10" s="13"/>
+    </row>
+    <row r="11" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="67">
+        <f>H8 + 1</f>
+        <v>1</v>
+      </c>
+      <c r="I11" s="69"/>
+      <c r="J11" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="146"/>
+      <c r="L11" s="147"/>
+      <c r="M11" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="98"/>
+      <c r="O11" s="98"/>
+      <c r="P11" s="98"/>
+      <c r="Q11" s="98"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="99"/>
+      <c r="T11" s="67">
+        <v>20</v>
+      </c>
+      <c r="U11" s="69"/>
+      <c r="V11" s="67">
+        <v>11</v>
+      </c>
+      <c r="W11" s="69"/>
+      <c r="X11" s="67" t="str">
+        <f t="shared" ref="X11" si="2">ROUND(( T11 / (T11 + V11) ) * 100,0) &amp; "%"</f>
+        <v>65%</v>
+      </c>
+      <c r="Y11" s="68"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="160"/>
+      <c r="AB11" s="161"/>
+      <c r="AC11" s="161"/>
+      <c r="AD11" s="161"/>
+      <c r="AE11" s="161"/>
+      <c r="AF11" s="161"/>
+      <c r="AG11" s="161"/>
+      <c r="AH11" s="161"/>
+      <c r="AI11" s="161"/>
+      <c r="AJ11" s="161"/>
+      <c r="AK11" s="161"/>
+      <c r="AL11" s="161"/>
+      <c r="AM11" s="161"/>
+      <c r="AN11" s="161"/>
+      <c r="AO11" s="161"/>
+      <c r="AP11" s="161"/>
+      <c r="AQ11" s="162"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="141"/>
+      <c r="AT11" s="141"/>
+      <c r="AU11" s="141"/>
+      <c r="AW11" s="13"/>
+    </row>
+    <row r="12" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="148"/>
+      <c r="K12" s="153"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="100"/>
+      <c r="N12" s="158"/>
+      <c r="O12" s="158"/>
+      <c r="P12" s="158"/>
+      <c r="Q12" s="158"/>
+      <c r="R12" s="158"/>
+      <c r="S12" s="102"/>
+      <c r="T12" s="70"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="70"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="70"/>
+      <c r="Y12" s="159"/>
+      <c r="Z12" s="72"/>
+      <c r="AA12" s="142"/>
+      <c r="AB12" s="156"/>
+      <c r="AC12" s="156"/>
+      <c r="AD12" s="156"/>
+      <c r="AE12" s="156"/>
+      <c r="AF12" s="156"/>
+      <c r="AG12" s="156"/>
+      <c r="AH12" s="156"/>
+      <c r="AI12" s="156"/>
+      <c r="AJ12" s="156"/>
+      <c r="AK12" s="156"/>
+      <c r="AL12" s="156"/>
+      <c r="AM12" s="156"/>
+      <c r="AN12" s="156"/>
+      <c r="AO12" s="156"/>
+      <c r="AP12" s="156"/>
+      <c r="AQ12" s="163"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="141"/>
+      <c r="AT12" s="141"/>
+      <c r="AU12" s="141"/>
+      <c r="AW12" s="13"/>
+    </row>
+    <row r="13" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="103"/>
+      <c r="N13" s="104"/>
+      <c r="O13" s="104"/>
+      <c r="P13" s="104"/>
+      <c r="Q13" s="104"/>
+      <c r="R13" s="104"/>
+      <c r="S13" s="105"/>
+      <c r="T13" s="73"/>
+      <c r="U13" s="75"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="75"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="74"/>
+      <c r="Z13" s="75"/>
+      <c r="AA13" s="143"/>
+      <c r="AB13" s="144"/>
+      <c r="AC13" s="144"/>
+      <c r="AD13" s="144"/>
+      <c r="AE13" s="144"/>
+      <c r="AF13" s="144"/>
+      <c r="AG13" s="144"/>
+      <c r="AH13" s="144"/>
+      <c r="AI13" s="144"/>
+      <c r="AJ13" s="144"/>
+      <c r="AK13" s="144"/>
+      <c r="AL13" s="144"/>
+      <c r="AM13" s="144"/>
+      <c r="AN13" s="144"/>
+      <c r="AO13" s="144"/>
+      <c r="AP13" s="144"/>
+      <c r="AQ13" s="164"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="141"/>
+      <c r="AT13" s="141"/>
+      <c r="AU13" s="141"/>
+      <c r="AW13" s="13"/>
+    </row>
+    <row r="14" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="67">
+        <f>H11 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="I14" s="69"/>
+      <c r="J14" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K14" s="146"/>
+      <c r="L14" s="147"/>
+      <c r="M14" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="N14" s="98"/>
+      <c r="O14" s="98"/>
+      <c r="P14" s="98"/>
+      <c r="Q14" s="98"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="99"/>
+      <c r="T14" s="67">
+        <v>20</v>
+      </c>
+      <c r="U14" s="69"/>
+      <c r="V14" s="67">
+        <v>11</v>
+      </c>
+      <c r="W14" s="69"/>
+      <c r="X14" s="67" t="str">
+        <f t="shared" ref="X14" si="3">ROUND(( T14 / (T14 + V14) ) * 100,0) &amp; "%"</f>
+        <v>65%</v>
+      </c>
+      <c r="Y14" s="68"/>
+      <c r="Z14" s="69"/>
+      <c r="AA14" s="160"/>
+      <c r="AB14" s="161"/>
+      <c r="AC14" s="161"/>
+      <c r="AD14" s="161"/>
+      <c r="AE14" s="161"/>
+      <c r="AF14" s="161"/>
+      <c r="AG14" s="161"/>
+      <c r="AH14" s="161"/>
+      <c r="AI14" s="161"/>
+      <c r="AJ14" s="161"/>
+      <c r="AK14" s="161"/>
+      <c r="AL14" s="161"/>
+      <c r="AM14" s="161"/>
+      <c r="AN14" s="161"/>
+      <c r="AO14" s="161"/>
+      <c r="AP14" s="161"/>
+      <c r="AQ14" s="162"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="141"/>
+      <c r="AT14" s="141"/>
+      <c r="AU14" s="141"/>
+      <c r="AW14" s="13"/>
+    </row>
+    <row r="15" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="72"/>
+      <c r="J15" s="148"/>
+      <c r="K15" s="153"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="100"/>
+      <c r="N15" s="158"/>
+      <c r="O15" s="158"/>
+      <c r="P15" s="158"/>
+      <c r="Q15" s="158"/>
+      <c r="R15" s="158"/>
+      <c r="S15" s="102"/>
+      <c r="T15" s="70"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="70"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="70"/>
+      <c r="Y15" s="159"/>
+      <c r="Z15" s="72"/>
+      <c r="AA15" s="142"/>
+      <c r="AB15" s="156"/>
+      <c r="AC15" s="156"/>
+      <c r="AD15" s="156"/>
+      <c r="AE15" s="156"/>
+      <c r="AF15" s="156"/>
+      <c r="AG15" s="156"/>
+      <c r="AH15" s="156"/>
+      <c r="AI15" s="156"/>
+      <c r="AJ15" s="156"/>
+      <c r="AK15" s="156"/>
+      <c r="AL15" s="156"/>
+      <c r="AM15" s="156"/>
+      <c r="AN15" s="156"/>
+      <c r="AO15" s="156"/>
+      <c r="AP15" s="156"/>
+      <c r="AQ15" s="163"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="141"/>
+      <c r="AT15" s="141"/>
+      <c r="AU15" s="141"/>
+      <c r="AW15" s="13"/>
+    </row>
+    <row r="16" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="103"/>
+      <c r="N16" s="104"/>
+      <c r="O16" s="104"/>
+      <c r="P16" s="104"/>
+      <c r="Q16" s="104"/>
+      <c r="R16" s="104"/>
+      <c r="S16" s="105"/>
+      <c r="T16" s="73"/>
+      <c r="U16" s="75"/>
+      <c r="V16" s="73"/>
+      <c r="W16" s="75"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="74"/>
+      <c r="Z16" s="75"/>
+      <c r="AA16" s="143"/>
+      <c r="AB16" s="144"/>
+      <c r="AC16" s="144"/>
+      <c r="AD16" s="144"/>
+      <c r="AE16" s="144"/>
+      <c r="AF16" s="144"/>
+      <c r="AG16" s="144"/>
+      <c r="AH16" s="144"/>
+      <c r="AI16" s="144"/>
+      <c r="AJ16" s="144"/>
+      <c r="AK16" s="144"/>
+      <c r="AL16" s="144"/>
+      <c r="AM16" s="144"/>
+      <c r="AN16" s="144"/>
+      <c r="AO16" s="144"/>
+      <c r="AP16" s="144"/>
+      <c r="AQ16" s="164"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="141"/>
+      <c r="AT16" s="141"/>
+      <c r="AU16" s="141"/>
+      <c r="AW16" s="13"/>
+    </row>
+    <row r="17" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="67">
+        <f>H14 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="I17" s="69"/>
+      <c r="J17" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K17" s="146"/>
+      <c r="L17" s="147"/>
+      <c r="M17" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="N17" s="98"/>
+      <c r="O17" s="98"/>
+      <c r="P17" s="98"/>
+      <c r="Q17" s="98"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="99"/>
+      <c r="T17" s="67">
+        <v>14</v>
+      </c>
+      <c r="U17" s="69"/>
+      <c r="V17" s="67">
+        <v>13</v>
+      </c>
+      <c r="W17" s="69"/>
+      <c r="X17" s="67" t="str">
+        <f t="shared" ref="X17" si="4">ROUND(( T17 / (T17 + V17) ) * 100,0) &amp; "%"</f>
+        <v>52%</v>
+      </c>
+      <c r="Y17" s="68"/>
+      <c r="Z17" s="69"/>
+      <c r="AA17" s="160"/>
+      <c r="AB17" s="161"/>
+      <c r="AC17" s="161"/>
+      <c r="AD17" s="161"/>
+      <c r="AE17" s="161"/>
+      <c r="AF17" s="161"/>
+      <c r="AG17" s="161"/>
+      <c r="AH17" s="161"/>
+      <c r="AI17" s="161"/>
+      <c r="AJ17" s="161"/>
+      <c r="AK17" s="161"/>
+      <c r="AL17" s="161"/>
+      <c r="AM17" s="161"/>
+      <c r="AN17" s="161"/>
+      <c r="AO17" s="161"/>
+      <c r="AP17" s="161"/>
+      <c r="AQ17" s="162"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="141"/>
+      <c r="AT17" s="141"/>
+      <c r="AU17" s="141"/>
+      <c r="AW17" s="13"/>
+    </row>
+    <row r="18" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="72"/>
+      <c r="J18" s="148"/>
+      <c r="K18" s="153"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="100"/>
+      <c r="N18" s="158"/>
+      <c r="O18" s="158"/>
+      <c r="P18" s="158"/>
+      <c r="Q18" s="158"/>
+      <c r="R18" s="158"/>
+      <c r="S18" s="102"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="159"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="142"/>
+      <c r="AB18" s="156"/>
+      <c r="AC18" s="156"/>
+      <c r="AD18" s="156"/>
+      <c r="AE18" s="156"/>
+      <c r="AF18" s="156"/>
+      <c r="AG18" s="156"/>
+      <c r="AH18" s="156"/>
+      <c r="AI18" s="156"/>
+      <c r="AJ18" s="156"/>
+      <c r="AK18" s="156"/>
+      <c r="AL18" s="156"/>
+      <c r="AM18" s="156"/>
+      <c r="AN18" s="156"/>
+      <c r="AO18" s="156"/>
+      <c r="AP18" s="156"/>
+      <c r="AQ18" s="163"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="141"/>
+      <c r="AT18" s="141"/>
+      <c r="AU18" s="141"/>
+      <c r="AW18" s="13"/>
+    </row>
+    <row r="19" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="103"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="104"/>
+      <c r="P19" s="104"/>
+      <c r="Q19" s="104"/>
+      <c r="R19" s="104"/>
+      <c r="S19" s="105"/>
+      <c r="T19" s="73"/>
+      <c r="U19" s="75"/>
+      <c r="V19" s="73"/>
+      <c r="W19" s="75"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="74"/>
+      <c r="Z19" s="75"/>
+      <c r="AA19" s="143"/>
+      <c r="AB19" s="144"/>
+      <c r="AC19" s="144"/>
+      <c r="AD19" s="144"/>
+      <c r="AE19" s="144"/>
+      <c r="AF19" s="144"/>
+      <c r="AG19" s="144"/>
+      <c r="AH19" s="144"/>
+      <c r="AI19" s="144"/>
+      <c r="AJ19" s="144"/>
+      <c r="AK19" s="144"/>
+      <c r="AL19" s="144"/>
+      <c r="AM19" s="144"/>
+      <c r="AN19" s="144"/>
+      <c r="AO19" s="144"/>
+      <c r="AP19" s="144"/>
+      <c r="AQ19" s="164"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="141"/>
+      <c r="AT19" s="141"/>
+      <c r="AU19" s="141"/>
+      <c r="AW19" s="13"/>
+    </row>
+    <row r="20" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="67">
+        <f>H17 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="I20" s="69"/>
+      <c r="J20" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K20" s="146"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="N20" s="98"/>
+      <c r="O20" s="98"/>
+      <c r="P20" s="98"/>
+      <c r="Q20" s="98"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="99"/>
+      <c r="T20" s="67">
+        <v>14</v>
+      </c>
+      <c r="U20" s="69"/>
+      <c r="V20" s="67">
+        <v>13</v>
+      </c>
+      <c r="W20" s="69"/>
+      <c r="X20" s="67" t="str">
+        <f t="shared" ref="X20" si="5">ROUND(( T20 / (T20 + V20) ) * 100,0) &amp; "%"</f>
+        <v>52%</v>
+      </c>
+      <c r="Y20" s="68"/>
+      <c r="Z20" s="69"/>
+      <c r="AA20" s="160"/>
+      <c r="AB20" s="161"/>
+      <c r="AC20" s="161"/>
+      <c r="AD20" s="161"/>
+      <c r="AE20" s="161"/>
+      <c r="AF20" s="161"/>
+      <c r="AG20" s="161"/>
+      <c r="AH20" s="161"/>
+      <c r="AI20" s="161"/>
+      <c r="AJ20" s="161"/>
+      <c r="AK20" s="161"/>
+      <c r="AL20" s="161"/>
+      <c r="AM20" s="161"/>
+      <c r="AN20" s="161"/>
+      <c r="AO20" s="161"/>
+      <c r="AP20" s="161"/>
+      <c r="AQ20" s="162"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="141"/>
+      <c r="AT20" s="141"/>
+      <c r="AU20" s="141"/>
+      <c r="AW20" s="13"/>
+    </row>
+    <row r="21" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="72"/>
+      <c r="J21" s="148"/>
+      <c r="K21" s="153"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="100"/>
+      <c r="N21" s="158"/>
+      <c r="O21" s="158"/>
+      <c r="P21" s="158"/>
+      <c r="Q21" s="158"/>
+      <c r="R21" s="158"/>
+      <c r="S21" s="102"/>
+      <c r="T21" s="70"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="70"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="70"/>
+      <c r="Y21" s="159"/>
+      <c r="Z21" s="72"/>
+      <c r="AA21" s="142"/>
+      <c r="AB21" s="156"/>
+      <c r="AC21" s="156"/>
+      <c r="AD21" s="156"/>
+      <c r="AE21" s="156"/>
+      <c r="AF21" s="156"/>
+      <c r="AG21" s="156"/>
+      <c r="AH21" s="156"/>
+      <c r="AI21" s="156"/>
+      <c r="AJ21" s="156"/>
+      <c r="AK21" s="156"/>
+      <c r="AL21" s="156"/>
+      <c r="AM21" s="156"/>
+      <c r="AN21" s="156"/>
+      <c r="AO21" s="156"/>
+      <c r="AP21" s="156"/>
+      <c r="AQ21" s="163"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="141"/>
+      <c r="AT21" s="141"/>
+      <c r="AU21" s="141"/>
+      <c r="AW21" s="13"/>
+    </row>
+    <row r="22" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="75"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="103"/>
+      <c r="N22" s="104"/>
+      <c r="O22" s="104"/>
+      <c r="P22" s="104"/>
+      <c r="Q22" s="104"/>
+      <c r="R22" s="104"/>
+      <c r="S22" s="105"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="75"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="75"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="74"/>
+      <c r="Z22" s="75"/>
+      <c r="AA22" s="143"/>
+      <c r="AB22" s="144"/>
+      <c r="AC22" s="144"/>
+      <c r="AD22" s="144"/>
+      <c r="AE22" s="144"/>
+      <c r="AF22" s="144"/>
+      <c r="AG22" s="144"/>
+      <c r="AH22" s="144"/>
+      <c r="AI22" s="144"/>
+      <c r="AJ22" s="144"/>
+      <c r="AK22" s="144"/>
+      <c r="AL22" s="144"/>
+      <c r="AM22" s="144"/>
+      <c r="AN22" s="144"/>
+      <c r="AO22" s="144"/>
+      <c r="AP22" s="144"/>
+      <c r="AQ22" s="164"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="141"/>
+      <c r="AT22" s="141"/>
+      <c r="AU22" s="141"/>
+      <c r="AW22" s="13"/>
+    </row>
+    <row r="23" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="67">
+        <f>H20 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="I23" s="69"/>
+      <c r="J23" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K23" s="146"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="98"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="98"/>
+      <c r="Q23" s="98"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="99"/>
+      <c r="T23" s="67">
+        <v>14</v>
+      </c>
+      <c r="U23" s="69"/>
+      <c r="V23" s="67">
+        <v>13</v>
+      </c>
+      <c r="W23" s="69"/>
+      <c r="X23" s="67" t="str">
+        <f t="shared" ref="X23" si="6">ROUND(( T23 / (T23 + V23) ) * 100,0) &amp; "%"</f>
+        <v>52%</v>
+      </c>
+      <c r="Y23" s="68"/>
+      <c r="Z23" s="69"/>
+      <c r="AA23" s="160"/>
+      <c r="AB23" s="161"/>
+      <c r="AC23" s="161"/>
+      <c r="AD23" s="161"/>
+      <c r="AE23" s="161"/>
+      <c r="AF23" s="161"/>
+      <c r="AG23" s="161"/>
+      <c r="AH23" s="161"/>
+      <c r="AI23" s="161"/>
+      <c r="AJ23" s="161"/>
+      <c r="AK23" s="161"/>
+      <c r="AL23" s="161"/>
+      <c r="AM23" s="161"/>
+      <c r="AN23" s="161"/>
+      <c r="AO23" s="161"/>
+      <c r="AP23" s="161"/>
+      <c r="AQ23" s="162"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="141"/>
+      <c r="AT23" s="141"/>
+      <c r="AU23" s="141"/>
+      <c r="AW23" s="13"/>
+    </row>
+    <row r="24" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="72"/>
+      <c r="J24" s="148"/>
+      <c r="K24" s="153"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="100"/>
+      <c r="N24" s="158"/>
+      <c r="O24" s="158"/>
+      <c r="P24" s="158"/>
+      <c r="Q24" s="158"/>
+      <c r="R24" s="158"/>
+      <c r="S24" s="102"/>
+      <c r="T24" s="70"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="70"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="70"/>
+      <c r="Y24" s="159"/>
+      <c r="Z24" s="72"/>
+      <c r="AA24" s="142"/>
+      <c r="AB24" s="156"/>
+      <c r="AC24" s="156"/>
+      <c r="AD24" s="156"/>
+      <c r="AE24" s="156"/>
+      <c r="AF24" s="156"/>
+      <c r="AG24" s="156"/>
+      <c r="AH24" s="156"/>
+      <c r="AI24" s="156"/>
+      <c r="AJ24" s="156"/>
+      <c r="AK24" s="156"/>
+      <c r="AL24" s="156"/>
+      <c r="AM24" s="156"/>
+      <c r="AN24" s="156"/>
+      <c r="AO24" s="156"/>
+      <c r="AP24" s="156"/>
+      <c r="AQ24" s="163"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="141"/>
+      <c r="AT24" s="141"/>
+      <c r="AU24" s="141"/>
+      <c r="AW24" s="13"/>
+    </row>
+    <row r="25" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="75"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="103"/>
+      <c r="N25" s="104"/>
+      <c r="O25" s="104"/>
+      <c r="P25" s="104"/>
+      <c r="Q25" s="104"/>
+      <c r="R25" s="104"/>
+      <c r="S25" s="105"/>
+      <c r="T25" s="73"/>
+      <c r="U25" s="75"/>
+      <c r="V25" s="73"/>
+      <c r="W25" s="75"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="74"/>
+      <c r="Z25" s="75"/>
+      <c r="AA25" s="143"/>
+      <c r="AB25" s="144"/>
+      <c r="AC25" s="144"/>
+      <c r="AD25" s="144"/>
+      <c r="AE25" s="144"/>
+      <c r="AF25" s="144"/>
+      <c r="AG25" s="144"/>
+      <c r="AH25" s="144"/>
+      <c r="AI25" s="144"/>
+      <c r="AJ25" s="144"/>
+      <c r="AK25" s="144"/>
+      <c r="AL25" s="144"/>
+      <c r="AM25" s="144"/>
+      <c r="AN25" s="144"/>
+      <c r="AO25" s="144"/>
+      <c r="AP25" s="144"/>
+      <c r="AQ25" s="164"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="141"/>
+      <c r="AT25" s="141"/>
+      <c r="AU25" s="141"/>
+      <c r="AW25" s="13"/>
+    </row>
+    <row r="26" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="156"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="156"/>
+      <c r="K26" s="156"/>
+      <c r="L26" s="156"/>
+      <c r="M26" s="156"/>
+      <c r="N26" s="156"/>
+      <c r="O26" s="156"/>
+      <c r="P26" s="156"/>
+      <c r="Q26" s="156"/>
+      <c r="R26" s="156"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="156"/>
+      <c r="W26" s="156"/>
+      <c r="X26" s="156"/>
+      <c r="Y26" s="156"/>
+      <c r="Z26" s="156"/>
+      <c r="AA26" s="156"/>
+      <c r="AB26" s="156"/>
+      <c r="AC26" s="156"/>
+      <c r="AD26" s="156"/>
+      <c r="AE26" s="156"/>
+      <c r="AF26" s="156"/>
+      <c r="AG26" s="156"/>
+      <c r="AH26" s="156"/>
+      <c r="AI26" s="156"/>
+      <c r="AJ26" s="156"/>
+      <c r="AK26" s="156"/>
+      <c r="AL26" s="156"/>
+      <c r="AM26" s="156"/>
+      <c r="AN26" s="156"/>
+      <c r="AO26" s="156"/>
+      <c r="AP26" s="156"/>
+      <c r="AQ26" s="156"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="141"/>
+      <c r="AT26" s="141"/>
+      <c r="AU26" s="141"/>
+      <c r="AW26" s="13"/>
+    </row>
+    <row r="27" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="156"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="156"/>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
+      <c r="Y27" s="156"/>
+      <c r="Z27" s="156"/>
+      <c r="AA27" s="156"/>
+      <c r="AB27" s="156"/>
+      <c r="AC27" s="156"/>
+      <c r="AD27" s="156"/>
+      <c r="AE27" s="156"/>
+      <c r="AF27" s="156"/>
+      <c r="AG27" s="156"/>
+      <c r="AH27" s="156"/>
+      <c r="AI27" s="156"/>
+      <c r="AJ27" s="156"/>
+      <c r="AK27" s="156"/>
+      <c r="AL27" s="156"/>
+      <c r="AM27" s="156"/>
+      <c r="AN27" s="156"/>
+      <c r="AO27" s="156"/>
+      <c r="AP27" s="156"/>
+      <c r="AQ27" s="156"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="141"/>
+      <c r="AT27" s="141"/>
+      <c r="AU27" s="141"/>
+      <c r="AW27" s="13"/>
+    </row>
+    <row r="28" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="156"/>
+      <c r="AH28" s="156"/>
+      <c r="AI28" s="156"/>
+      <c r="AJ28" s="156"/>
+      <c r="AK28" s="156"/>
+      <c r="AL28" s="156"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="156"/>
+      <c r="AO28" s="156"/>
+      <c r="AP28" s="156"/>
+      <c r="AQ28" s="156"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="141"/>
+      <c r="AT28" s="141"/>
+      <c r="AU28" s="141"/>
+      <c r="AW28" s="13"/>
+    </row>
+    <row r="29" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="67">
+        <v>86</v>
+      </c>
+      <c r="I29" s="69"/>
+      <c r="J29" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K29" s="146"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="N29" s="98"/>
+      <c r="O29" s="98"/>
+      <c r="P29" s="98"/>
+      <c r="Q29" s="98"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="99"/>
+      <c r="T29" s="67">
+        <v>14</v>
+      </c>
+      <c r="U29" s="69"/>
+      <c r="V29" s="67">
+        <v>13</v>
+      </c>
+      <c r="W29" s="69"/>
+      <c r="X29" s="67" t="str">
+        <f t="shared" ref="X29" si="7">ROUND(( T29 / (T29 + V29) ) * 100,0) &amp; "%"</f>
+        <v>52%</v>
+      </c>
+      <c r="Y29" s="68"/>
+      <c r="Z29" s="69"/>
+      <c r="AA29" s="160"/>
+      <c r="AB29" s="161"/>
+      <c r="AC29" s="161"/>
+      <c r="AD29" s="161"/>
+      <c r="AE29" s="161"/>
+      <c r="AF29" s="161"/>
+      <c r="AG29" s="161"/>
+      <c r="AH29" s="161"/>
+      <c r="AI29" s="161"/>
+      <c r="AJ29" s="161"/>
+      <c r="AK29" s="161"/>
+      <c r="AL29" s="161"/>
+      <c r="AM29" s="161"/>
+      <c r="AN29" s="161"/>
+      <c r="AO29" s="161"/>
+      <c r="AP29" s="161"/>
+      <c r="AQ29" s="162"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="141"/>
+      <c r="AT29" s="141"/>
+      <c r="AU29" s="141"/>
+      <c r="AW29" s="13"/>
+    </row>
+    <row r="30" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="72"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="153"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="100"/>
+      <c r="N30" s="158"/>
+      <c r="O30" s="158"/>
+      <c r="P30" s="158"/>
+      <c r="Q30" s="158"/>
+      <c r="R30" s="158"/>
+      <c r="S30" s="102"/>
+      <c r="T30" s="70"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="70"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="70"/>
+      <c r="Y30" s="159"/>
+      <c r="Z30" s="72"/>
+      <c r="AA30" s="142"/>
+      <c r="AB30" s="156"/>
+      <c r="AC30" s="156"/>
+      <c r="AD30" s="156"/>
+      <c r="AE30" s="156"/>
+      <c r="AF30" s="156"/>
+      <c r="AG30" s="156"/>
+      <c r="AH30" s="156"/>
+      <c r="AI30" s="156"/>
+      <c r="AJ30" s="156"/>
+      <c r="AK30" s="156"/>
+      <c r="AL30" s="156"/>
+      <c r="AM30" s="156"/>
+      <c r="AN30" s="156"/>
+      <c r="AO30" s="156"/>
+      <c r="AP30" s="156"/>
+      <c r="AQ30" s="163"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="141"/>
+      <c r="AT30" s="141"/>
+      <c r="AU30" s="141"/>
+      <c r="AW30" s="13"/>
+    </row>
+    <row r="31" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="103"/>
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="105"/>
+      <c r="T31" s="73"/>
+      <c r="U31" s="75"/>
+      <c r="V31" s="73"/>
+      <c r="W31" s="75"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="74"/>
+      <c r="Z31" s="75"/>
+      <c r="AA31" s="143"/>
+      <c r="AB31" s="144"/>
+      <c r="AC31" s="144"/>
+      <c r="AD31" s="144"/>
+      <c r="AE31" s="144"/>
+      <c r="AF31" s="144"/>
+      <c r="AG31" s="144"/>
+      <c r="AH31" s="144"/>
+      <c r="AI31" s="144"/>
+      <c r="AJ31" s="144"/>
+      <c r="AK31" s="144"/>
+      <c r="AL31" s="144"/>
+      <c r="AM31" s="144"/>
+      <c r="AN31" s="144"/>
+      <c r="AO31" s="144"/>
+      <c r="AP31" s="144"/>
+      <c r="AQ31" s="164"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="141"/>
+      <c r="AT31" s="141"/>
+      <c r="AU31" s="141"/>
+      <c r="AW31" s="13"/>
+    </row>
+    <row r="32" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="67">
+        <v>87</v>
+      </c>
+      <c r="I32" s="69"/>
+      <c r="J32" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K32" s="146"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="N32" s="98"/>
+      <c r="O32" s="98"/>
+      <c r="P32" s="98"/>
+      <c r="Q32" s="98"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="99"/>
+      <c r="T32" s="67">
+        <v>14</v>
+      </c>
+      <c r="U32" s="69"/>
+      <c r="V32" s="67">
+        <v>13</v>
+      </c>
+      <c r="W32" s="69"/>
+      <c r="X32" s="67" t="str">
+        <f t="shared" ref="X32" si="8">ROUND(( T32 / (T32 + V32) ) * 100,0) &amp; "%"</f>
+        <v>52%</v>
+      </c>
+      <c r="Y32" s="68"/>
+      <c r="Z32" s="69"/>
+      <c r="AA32" s="160"/>
+      <c r="AB32" s="161"/>
+      <c r="AC32" s="161"/>
+      <c r="AD32" s="161"/>
+      <c r="AE32" s="161"/>
+      <c r="AF32" s="161"/>
+      <c r="AG32" s="161"/>
+      <c r="AH32" s="161"/>
+      <c r="AI32" s="161"/>
+      <c r="AJ32" s="161"/>
+      <c r="AK32" s="161"/>
+      <c r="AL32" s="161"/>
+      <c r="AM32" s="161"/>
+      <c r="AN32" s="161"/>
+      <c r="AO32" s="161"/>
+      <c r="AP32" s="161"/>
+      <c r="AQ32" s="162"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="141"/>
+      <c r="AT32" s="141"/>
+      <c r="AU32" s="141"/>
+      <c r="AW32" s="13"/>
+    </row>
+    <row r="33" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="72"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="153"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="100"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="158"/>
+      <c r="Q33" s="158"/>
+      <c r="R33" s="158"/>
+      <c r="S33" s="102"/>
+      <c r="T33" s="70"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="70"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="70"/>
+      <c r="Y33" s="159"/>
+      <c r="Z33" s="72"/>
+      <c r="AA33" s="142"/>
+      <c r="AB33" s="156"/>
+      <c r="AC33" s="156"/>
+      <c r="AD33" s="156"/>
+      <c r="AE33" s="156"/>
+      <c r="AF33" s="156"/>
+      <c r="AG33" s="156"/>
+      <c r="AH33" s="156"/>
+      <c r="AI33" s="156"/>
+      <c r="AJ33" s="156"/>
+      <c r="AK33" s="156"/>
+      <c r="AL33" s="156"/>
+      <c r="AM33" s="156"/>
+      <c r="AN33" s="156"/>
+      <c r="AO33" s="156"/>
+      <c r="AP33" s="156"/>
+      <c r="AQ33" s="163"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="141"/>
+      <c r="AT33" s="141"/>
+      <c r="AU33" s="141"/>
+      <c r="AW33" s="13"/>
+    </row>
+    <row r="34" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="75"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="103"/>
+      <c r="N34" s="104"/>
+      <c r="O34" s="104"/>
+      <c r="P34" s="104"/>
+      <c r="Q34" s="104"/>
+      <c r="R34" s="104"/>
+      <c r="S34" s="105"/>
+      <c r="T34" s="73"/>
+      <c r="U34" s="75"/>
+      <c r="V34" s="73"/>
+      <c r="W34" s="75"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="74"/>
+      <c r="Z34" s="75"/>
+      <c r="AA34" s="143"/>
+      <c r="AB34" s="144"/>
+      <c r="AC34" s="144"/>
+      <c r="AD34" s="144"/>
+      <c r="AE34" s="144"/>
+      <c r="AF34" s="144"/>
+      <c r="AG34" s="144"/>
+      <c r="AH34" s="144"/>
+      <c r="AI34" s="144"/>
+      <c r="AJ34" s="144"/>
+      <c r="AK34" s="144"/>
+      <c r="AL34" s="144"/>
+      <c r="AM34" s="144"/>
+      <c r="AN34" s="144"/>
+      <c r="AO34" s="144"/>
+      <c r="AP34" s="144"/>
+      <c r="AQ34" s="164"/>
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="141"/>
+      <c r="AT34" s="141"/>
+      <c r="AU34" s="141"/>
+      <c r="AW34" s="13"/>
+    </row>
+    <row r="35" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="143"/>
+      <c r="H35" s="144"/>
+      <c r="I35" s="144"/>
+      <c r="J35" s="144"/>
+      <c r="K35" s="144"/>
+      <c r="L35" s="144"/>
+      <c r="M35" s="144"/>
+      <c r="N35" s="144"/>
+      <c r="O35" s="144"/>
+      <c r="P35" s="144"/>
+      <c r="Q35" s="144"/>
+      <c r="R35" s="144"/>
+      <c r="S35" s="144"/>
+      <c r="T35" s="144"/>
+      <c r="U35" s="144"/>
+      <c r="V35" s="144"/>
+      <c r="W35" s="144"/>
+      <c r="X35" s="144"/>
+      <c r="Y35" s="144"/>
+      <c r="Z35" s="144"/>
+      <c r="AA35" s="144"/>
+      <c r="AB35" s="144"/>
+      <c r="AC35" s="144"/>
+      <c r="AD35" s="144"/>
+      <c r="AE35" s="144"/>
+      <c r="AF35" s="144"/>
+      <c r="AG35" s="144"/>
+      <c r="AH35" s="144"/>
+      <c r="AI35" s="144"/>
+      <c r="AJ35" s="144"/>
+      <c r="AK35" s="144"/>
+      <c r="AL35" s="144"/>
+      <c r="AM35" s="144"/>
+      <c r="AN35" s="144"/>
+      <c r="AO35" s="144"/>
+      <c r="AP35" s="144"/>
+      <c r="AQ35" s="144"/>
+      <c r="AR35" s="9"/>
+      <c r="AS35" s="141"/>
+      <c r="AT35" s="141"/>
+      <c r="AU35" s="141"/>
+      <c r="AW35" s="13"/>
+    </row>
+    <row r="36" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="15"/>
+      <c r="H36" s="15"/>
+      <c r="I36" s="15"/>
+      <c r="J36" s="15"/>
+      <c r="K36" s="15"/>
+      <c r="L36" s="15"/>
+      <c r="M36" s="15"/>
+      <c r="N36" s="15"/>
+      <c r="O36" s="15"/>
+      <c r="P36" s="15"/>
+      <c r="Q36" s="15"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
+      <c r="T36" s="15"/>
+      <c r="U36" s="15"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="15"/>
+      <c r="Y36" s="15"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
+      <c r="AE36" s="15"/>
+      <c r="AF36" s="15"/>
+      <c r="AG36" s="15"/>
+      <c r="AH36" s="15"/>
+      <c r="AI36" s="15"/>
+      <c r="AJ36" s="15"/>
+      <c r="AK36" s="15"/>
+      <c r="AL36" s="15"/>
+      <c r="AM36" s="15"/>
+      <c r="AN36" s="15"/>
+      <c r="AO36" s="15"/>
+      <c r="AP36" s="15"/>
+      <c r="AQ36" s="15"/>
+      <c r="AR36" s="15"/>
+      <c r="AS36" s="15"/>
+      <c r="AT36" s="15"/>
+      <c r="AU36" s="15"/>
+      <c r="AV36" s="15"/>
+      <c r="AW36" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="64">
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="Z6:AA6"/>
+    <mergeCell ref="Z7:AA7"/>
+    <mergeCell ref="Z8:AA8"/>
+    <mergeCell ref="H32:I34"/>
+    <mergeCell ref="J32:L34"/>
+    <mergeCell ref="M32:S34"/>
+    <mergeCell ref="T32:U34"/>
+    <mergeCell ref="V32:W34"/>
+    <mergeCell ref="X32:Z34"/>
+    <mergeCell ref="J29:L31"/>
+    <mergeCell ref="M29:S31"/>
+    <mergeCell ref="T29:U31"/>
+    <mergeCell ref="V29:W31"/>
+    <mergeCell ref="X29:Z31"/>
+    <mergeCell ref="H29:I31"/>
+    <mergeCell ref="J23:L25"/>
+    <mergeCell ref="M23:S25"/>
+    <mergeCell ref="T23:U25"/>
+    <mergeCell ref="V23:W25"/>
+    <mergeCell ref="X23:Z25"/>
+    <mergeCell ref="H11:I13"/>
+    <mergeCell ref="J11:L13"/>
+    <mergeCell ref="M11:S13"/>
+    <mergeCell ref="T11:U13"/>
+    <mergeCell ref="V11:W13"/>
+    <mergeCell ref="T20:U22"/>
+    <mergeCell ref="V20:W22"/>
+    <mergeCell ref="X20:Z22"/>
+    <mergeCell ref="H23:I25"/>
+    <mergeCell ref="H17:I19"/>
+    <mergeCell ref="J17:L19"/>
+    <mergeCell ref="M17:S19"/>
+    <mergeCell ref="T17:U19"/>
+    <mergeCell ref="V17:W19"/>
+    <mergeCell ref="X14:Z16"/>
+    <mergeCell ref="X17:Z19"/>
+    <mergeCell ref="X11:Z13"/>
+    <mergeCell ref="J14:L16"/>
+    <mergeCell ref="H14:I16"/>
+    <mergeCell ref="M14:S16"/>
+    <mergeCell ref="T14:U16"/>
+    <mergeCell ref="V14:W16"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:S10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:W10"/>
+    <mergeCell ref="X10:Z10"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:X6"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:X7"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:X8"/>
+    <mergeCell ref="H6:J8"/>
+    <mergeCell ref="K6:Q8"/>
+    <mergeCell ref="H20:I22"/>
+    <mergeCell ref="J20:L22"/>
+    <mergeCell ref="M20:S22"/>
+    <mergeCell ref="Q4:U4"/>
+    <mergeCell ref="V4:W4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C6B1BAC-F2BD-4486-BFF8-AC5F6815BC2B}">
+  <dimension ref="A1:AW37"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.59765625" defaultRowHeight="13.2" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="33" width="2.59765625" style="1"/>
+    <col min="34" max="34" width="3.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="2.59765625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B1" s="26">
+        <v>1</v>
+      </c>
+      <c r="C1" s="26">
+        <f>B1 +1</f>
+        <v>2</v>
+      </c>
+      <c r="D1" s="26">
+        <f t="shared" ref="D1:AW1" si="0">C1 +1</f>
+        <v>3</v>
+      </c>
+      <c r="E1" s="26">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F1" s="26">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>1</v>
+      </c>
+      <c r="H1" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I1" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="J1" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="K1" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L1" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="M1" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="N1" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O1" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="P1" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="R1" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="S1" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="T1" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="U1" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="V1" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="W1" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="X1" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="Y1" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="Z1" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="AA1" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="AB1" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="AC1" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="AD1" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="AE1" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="AF1" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="AG1" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="AH1" s="1">
+        <f>AG1 +1</f>
+        <v>28</v>
+      </c>
+      <c r="AI1" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="AJ1" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="AK1" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="AL1" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="AM1" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="AN1" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="AO1" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="AP1" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="AQ1" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="AR1" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="AS1" s="26">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="AT1" s="26">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="AU1" s="26">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="AV1" s="26">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="AW1" s="26">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:49" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+      <c r="V2" s="33"/>
+      <c r="W2" s="33"/>
+      <c r="X2" s="33"/>
+      <c r="Y2" s="33"/>
+      <c r="Z2" s="33"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="33"/>
+      <c r="AC2" s="33"/>
+      <c r="AD2" s="33"/>
+      <c r="AE2" s="33"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="33"/>
+      <c r="AI2" s="33"/>
+      <c r="AJ2" s="33"/>
+      <c r="AK2" s="33"/>
+      <c r="AL2" s="33"/>
+      <c r="AM2" s="33"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="33"/>
+      <c r="AP2" s="33"/>
+      <c r="AQ2" s="33"/>
+      <c r="AR2" s="33"/>
+      <c r="AS2" s="33"/>
+      <c r="AT2" s="33"/>
+      <c r="AU2" s="33"/>
+      <c r="AV2" s="33"/>
+      <c r="AW2" s="34"/>
+    </row>
+    <row r="3" spans="1:49" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="1">
+        <f>A2 +1</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="E3" s="141"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="141"/>
+      <c r="AT3" s="141"/>
+      <c r="AU3" s="141"/>
+      <c r="AW3" s="13"/>
+    </row>
+    <row r="4" spans="1:49" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="1">
+        <f t="shared" ref="A4:A37" si="1">A3 +1</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="12"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="141"/>
+      <c r="G4" s="142"/>
+      <c r="H4" s="154" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="154" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="155"/>
+      <c r="K4" s="155"/>
+      <c r="L4" s="155"/>
+      <c r="M4" s="155"/>
+      <c r="N4" s="155"/>
+      <c r="O4" s="155" t="s">
+        <v>55</v>
+      </c>
+      <c r="P4" s="155"/>
+      <c r="Q4" s="155"/>
+      <c r="R4" s="155"/>
+      <c r="S4" s="41" t="s">
+        <v>54</v>
+      </c>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y4" s="45"/>
+      <c r="Z4" s="155"/>
+      <c r="AA4" s="155"/>
+      <c r="AB4" s="155"/>
+      <c r="AC4" s="155"/>
+      <c r="AD4" s="155"/>
+      <c r="AE4" s="155"/>
+      <c r="AF4" s="155"/>
+      <c r="AG4" s="155"/>
+      <c r="AH4" s="156"/>
+      <c r="AI4" s="156"/>
+      <c r="AJ4" s="156"/>
+      <c r="AK4" s="156"/>
+      <c r="AL4" s="156"/>
+      <c r="AM4" s="156"/>
+      <c r="AN4" s="156"/>
+      <c r="AO4" s="156"/>
+      <c r="AP4" s="156"/>
+      <c r="AQ4" s="156"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="141"/>
+      <c r="AT4" s="141"/>
+      <c r="AU4" s="141"/>
+      <c r="AW4" s="13"/>
+    </row>
+    <row r="5" spans="1:49" ht="4.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="1">
+        <f>A4 +1</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="E5" s="141"/>
+      <c r="F5" s="141"/>
+      <c r="G5" s="142"/>
+      <c r="H5" s="156"/>
+      <c r="I5" s="156"/>
+      <c r="J5" s="156"/>
+      <c r="K5" s="156"/>
+      <c r="L5" s="156"/>
+      <c r="M5" s="156"/>
+      <c r="N5" s="156"/>
+      <c r="O5" s="156"/>
+      <c r="P5" s="156"/>
+      <c r="Q5" s="155"/>
+      <c r="R5" s="155"/>
+      <c r="S5" s="155"/>
+      <c r="T5" s="155"/>
+      <c r="U5" s="155"/>
+      <c r="V5" s="155"/>
+      <c r="W5" s="155"/>
+      <c r="X5" s="155"/>
+      <c r="Y5" s="155"/>
+      <c r="Z5" s="155"/>
+      <c r="AA5" s="155"/>
+      <c r="AB5" s="155"/>
+      <c r="AC5" s="155"/>
+      <c r="AD5" s="155"/>
+      <c r="AE5" s="156"/>
+      <c r="AF5" s="156"/>
+      <c r="AG5" s="156"/>
+      <c r="AH5" s="156"/>
+      <c r="AI5" s="156"/>
+      <c r="AJ5" s="156"/>
+      <c r="AK5" s="156"/>
+      <c r="AL5" s="156"/>
+      <c r="AM5" s="156"/>
+      <c r="AN5" s="156"/>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="156"/>
+      <c r="AQ5" s="156"/>
+      <c r="AR5" s="6"/>
+      <c r="AS5" s="141"/>
+      <c r="AT5" s="141"/>
+      <c r="AU5" s="141"/>
+      <c r="AW5" s="13"/>
+    </row>
+    <row r="6" spans="1:49" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="1">
+        <f t="shared" ref="A6:A9" si="2">A5 +1</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="53"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="55">
+        <v>30</v>
+      </c>
+      <c r="L6" s="56"/>
+      <c r="M6" s="57"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="155"/>
+      <c r="R6" s="155"/>
+      <c r="S6" s="155"/>
+      <c r="T6" s="155"/>
+      <c r="U6" s="155"/>
+      <c r="V6" s="155"/>
+      <c r="W6" s="155"/>
+      <c r="X6" s="155"/>
+      <c r="Y6" s="155"/>
+      <c r="Z6" s="155"/>
+      <c r="AA6" s="155"/>
+      <c r="AB6" s="155"/>
+      <c r="AC6" s="155"/>
+      <c r="AD6" s="155"/>
+      <c r="AE6" s="155"/>
+      <c r="AF6" s="155"/>
+      <c r="AG6" s="156"/>
+      <c r="AH6" s="156"/>
+      <c r="AI6" s="156"/>
+      <c r="AJ6" s="156"/>
+      <c r="AK6" s="156"/>
+      <c r="AL6" s="156"/>
+      <c r="AM6" s="156"/>
+      <c r="AN6" s="156"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="156"/>
+      <c r="AQ6" s="155"/>
+      <c r="AR6" s="6"/>
+      <c r="AW6" s="13"/>
+    </row>
+    <row r="7" spans="1:49" ht="13.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="1">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="53"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="55">
+        <v>20</v>
+      </c>
+      <c r="L7" s="56"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="P7" s="45"/>
+      <c r="Q7" s="155"/>
+      <c r="R7" s="155"/>
+      <c r="S7" s="155"/>
+      <c r="T7" s="155"/>
+      <c r="U7" s="155"/>
+      <c r="V7" s="155"/>
+      <c r="W7" s="155"/>
+      <c r="X7" s="155"/>
+      <c r="Y7" s="155"/>
+      <c r="Z7" s="155"/>
+      <c r="AA7" s="155"/>
+      <c r="AB7" s="155"/>
+      <c r="AC7" s="155"/>
+      <c r="AD7" s="155"/>
+      <c r="AE7" s="156"/>
+      <c r="AF7" s="156"/>
+      <c r="AG7" s="156"/>
+      <c r="AH7" s="156"/>
+      <c r="AI7" s="156"/>
+      <c r="AJ7" s="156"/>
+      <c r="AK7" s="156"/>
+      <c r="AL7" s="156"/>
+      <c r="AM7" s="156"/>
+      <c r="AN7" s="156"/>
+      <c r="AO7" s="156"/>
+      <c r="AP7" s="156"/>
+      <c r="AQ7" s="155"/>
+      <c r="AR7" s="6"/>
+      <c r="AW7" s="13"/>
+    </row>
+    <row r="8" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="1">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="52" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" s="53"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="55">
+        <v>20</v>
+      </c>
+      <c r="L8" s="56"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="P8" s="45"/>
+      <c r="Q8" s="155"/>
+      <c r="R8" s="155"/>
+      <c r="S8" s="155"/>
+      <c r="T8" s="155"/>
+      <c r="U8" s="155"/>
+      <c r="V8" s="155"/>
+      <c r="W8" s="155"/>
+      <c r="X8" s="155"/>
+      <c r="Y8" s="155"/>
+      <c r="Z8" s="155"/>
+      <c r="AA8" s="155"/>
+      <c r="AB8" s="155"/>
+      <c r="AC8" s="155"/>
+      <c r="AD8" s="155"/>
+      <c r="AE8" s="156"/>
+      <c r="AF8" s="156"/>
+      <c r="AG8" s="156"/>
+      <c r="AH8" s="156"/>
+      <c r="AI8" s="156"/>
+      <c r="AJ8" s="156"/>
+      <c r="AK8" s="156"/>
+      <c r="AL8" s="156"/>
+      <c r="AM8" s="156"/>
+      <c r="AN8" s="156"/>
+      <c r="AO8" s="156"/>
+      <c r="AP8" s="156"/>
+      <c r="AQ8" s="155"/>
+      <c r="AR8" s="6"/>
+      <c r="AW8" s="13"/>
+    </row>
+    <row r="9" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="1">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="66"/>
+      <c r="J9" s="65"/>
+      <c r="K9" s="55">
+        <v>20</v>
+      </c>
+      <c r="L9" s="56"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="156"/>
+      <c r="O9" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="P9" s="45"/>
+      <c r="Q9" s="155"/>
+      <c r="R9" s="155"/>
+      <c r="S9" s="155"/>
+      <c r="T9" s="155"/>
+      <c r="U9" s="155"/>
+      <c r="V9" s="155"/>
+      <c r="W9" s="155"/>
+      <c r="X9" s="155"/>
+      <c r="Y9" s="155"/>
+      <c r="Z9" s="155"/>
+      <c r="AA9" s="155"/>
+      <c r="AB9" s="155"/>
+      <c r="AC9" s="155"/>
+      <c r="AD9" s="155"/>
+      <c r="AE9" s="156"/>
+      <c r="AF9" s="156"/>
+      <c r="AG9" s="156"/>
+      <c r="AH9" s="156"/>
+      <c r="AI9" s="156"/>
+      <c r="AJ9" s="156"/>
+      <c r="AK9" s="156"/>
+      <c r="AL9" s="156"/>
+      <c r="AM9" s="156"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="156"/>
+      <c r="AQ9" s="155"/>
+      <c r="AR9" s="6"/>
+      <c r="AW9" s="13"/>
+    </row>
+    <row r="10" spans="1:49" ht="4.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="12"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35"/>
+      <c r="N10" s="35"/>
+      <c r="O10" s="35"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="155"/>
+      <c r="R10" s="155"/>
+      <c r="S10" s="155"/>
+      <c r="T10" s="155"/>
+      <c r="U10" s="155"/>
+      <c r="V10" s="155"/>
+      <c r="W10" s="155"/>
+      <c r="X10" s="155"/>
+      <c r="Y10" s="155"/>
+      <c r="Z10" s="155"/>
+      <c r="AA10" s="155"/>
+      <c r="AB10" s="155"/>
+      <c r="AC10" s="155"/>
+      <c r="AD10" s="155"/>
+      <c r="AE10" s="156"/>
+      <c r="AF10" s="156"/>
+      <c r="AG10" s="156"/>
+      <c r="AH10" s="156"/>
+      <c r="AI10" s="156"/>
+      <c r="AJ10" s="156"/>
+      <c r="AK10" s="156"/>
+      <c r="AL10" s="156"/>
+      <c r="AM10" s="156"/>
+      <c r="AN10" s="156"/>
+      <c r="AO10" s="156"/>
+      <c r="AP10" s="156"/>
+      <c r="AQ10" s="155"/>
+      <c r="AR10" s="6"/>
+      <c r="AW10" s="13"/>
+    </row>
+    <row r="11" spans="1:49" ht="13.5" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="1">
+        <f>A5 +1</f>
+        <v>5</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="64" t="s">
+        <v>1</v>
+      </c>
+      <c r="I11" s="65"/>
+      <c r="J11" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="66"/>
+      <c r="L11" s="65"/>
+      <c r="M11" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+      <c r="R11" s="66"/>
+      <c r="S11" s="65"/>
+      <c r="T11" s="64" t="s">
+        <v>2</v>
+      </c>
+      <c r="U11" s="65"/>
+      <c r="V11" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="65"/>
+      <c r="X11" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y11" s="66"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="64" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB11" s="66"/>
+      <c r="AC11" s="65"/>
+      <c r="AD11" s="165" t="s">
+        <v>68</v>
+      </c>
+      <c r="AE11" s="166"/>
+      <c r="AF11" s="166"/>
+      <c r="AG11" s="166"/>
+      <c r="AH11" s="166"/>
+      <c r="AI11" s="166"/>
+      <c r="AJ11" s="166"/>
+      <c r="AK11" s="166"/>
+      <c r="AL11" s="166"/>
+      <c r="AM11" s="166"/>
+      <c r="AN11" s="166"/>
+      <c r="AO11" s="166"/>
+      <c r="AP11" s="166"/>
+      <c r="AQ11" s="166"/>
+      <c r="AR11" s="6"/>
+      <c r="AS11" s="141"/>
+      <c r="AT11" s="141"/>
+      <c r="AU11" s="141"/>
+      <c r="AW11" s="13"/>
+    </row>
+    <row r="12" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="E12" s="141"/>
+      <c r="F12" s="141"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="67">
+        <v>1</v>
+      </c>
+      <c r="I12" s="69"/>
+      <c r="J12" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K12" s="146"/>
+      <c r="L12" s="147"/>
+      <c r="M12" s="97" t="s">
+        <v>59</v>
+      </c>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="99"/>
+      <c r="T12" s="67">
+        <v>20</v>
+      </c>
+      <c r="U12" s="69"/>
+      <c r="V12" s="67">
+        <v>11</v>
+      </c>
+      <c r="W12" s="69"/>
+      <c r="X12" s="67" t="str">
+        <f t="shared" ref="X12" si="3">ROUND(( T12 / (T12 + V12) ) * 100,0) &amp; "%"</f>
+        <v>65%</v>
+      </c>
+      <c r="Y12" s="68"/>
+      <c r="Z12" s="69"/>
+      <c r="AA12" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB12" s="68"/>
+      <c r="AC12" s="69"/>
+      <c r="AD12" s="160"/>
+      <c r="AE12" s="161"/>
+      <c r="AF12" s="161"/>
+      <c r="AG12" s="161"/>
+      <c r="AH12" s="161"/>
+      <c r="AI12" s="161"/>
+      <c r="AJ12" s="161"/>
+      <c r="AK12" s="161"/>
+      <c r="AL12" s="161"/>
+      <c r="AM12" s="161"/>
+      <c r="AN12" s="161"/>
+      <c r="AO12" s="161"/>
+      <c r="AP12" s="161"/>
+      <c r="AQ12" s="162"/>
+      <c r="AR12" s="6"/>
+      <c r="AS12" s="141"/>
+      <c r="AT12" s="141"/>
+      <c r="AU12" s="141"/>
+      <c r="AW12" s="13"/>
+    </row>
+    <row r="13" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="E13" s="141"/>
+      <c r="F13" s="141"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="72"/>
+      <c r="J13" s="148"/>
+      <c r="K13" s="153"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="100"/>
+      <c r="N13" s="158"/>
+      <c r="O13" s="158"/>
+      <c r="P13" s="158"/>
+      <c r="Q13" s="158"/>
+      <c r="R13" s="158"/>
+      <c r="S13" s="102"/>
+      <c r="T13" s="70"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="70"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="70"/>
+      <c r="Y13" s="159"/>
+      <c r="Z13" s="72"/>
+      <c r="AA13" s="70"/>
+      <c r="AB13" s="159"/>
+      <c r="AC13" s="72"/>
+      <c r="AD13" s="142"/>
+      <c r="AE13" s="156"/>
+      <c r="AF13" s="156"/>
+      <c r="AG13" s="156"/>
+      <c r="AH13" s="156"/>
+      <c r="AI13" s="156"/>
+      <c r="AJ13" s="156"/>
+      <c r="AK13" s="156"/>
+      <c r="AL13" s="156"/>
+      <c r="AM13" s="156"/>
+      <c r="AN13" s="156"/>
+      <c r="AO13" s="156"/>
+      <c r="AP13" s="156"/>
+      <c r="AQ13" s="163"/>
+      <c r="AR13" s="6"/>
+      <c r="AS13" s="141"/>
+      <c r="AT13" s="141"/>
+      <c r="AU13" s="141"/>
+      <c r="AW13" s="13"/>
+    </row>
+    <row r="14" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A14" s="1">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="E14" s="141"/>
+      <c r="F14" s="141"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="75"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="104"/>
+      <c r="O14" s="104"/>
+      <c r="P14" s="104"/>
+      <c r="Q14" s="104"/>
+      <c r="R14" s="104"/>
+      <c r="S14" s="105"/>
+      <c r="T14" s="73"/>
+      <c r="U14" s="75"/>
+      <c r="V14" s="73"/>
+      <c r="W14" s="75"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="74"/>
+      <c r="Z14" s="75"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="75"/>
+      <c r="AD14" s="143"/>
+      <c r="AE14" s="144"/>
+      <c r="AF14" s="144"/>
+      <c r="AG14" s="144"/>
+      <c r="AH14" s="144"/>
+      <c r="AI14" s="144"/>
+      <c r="AJ14" s="144"/>
+      <c r="AK14" s="144"/>
+      <c r="AL14" s="144"/>
+      <c r="AM14" s="144"/>
+      <c r="AN14" s="144"/>
+      <c r="AO14" s="144"/>
+      <c r="AP14" s="144"/>
+      <c r="AQ14" s="164"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="141"/>
+      <c r="AT14" s="141"/>
+      <c r="AU14" s="141"/>
+      <c r="AW14" s="13"/>
+    </row>
+    <row r="15" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A15" s="1">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="E15" s="141"/>
+      <c r="F15" s="141"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="67">
+        <f>H12 + 1</f>
+        <v>2</v>
+      </c>
+      <c r="I15" s="69"/>
+      <c r="J15" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K15" s="146"/>
+      <c r="L15" s="147"/>
+      <c r="M15" s="97" t="s">
+        <v>60</v>
+      </c>
+      <c r="N15" s="98"/>
+      <c r="O15" s="98"/>
+      <c r="P15" s="98"/>
+      <c r="Q15" s="98"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="99"/>
+      <c r="T15" s="67">
+        <v>20</v>
+      </c>
+      <c r="U15" s="69"/>
+      <c r="V15" s="67">
+        <v>11</v>
+      </c>
+      <c r="W15" s="69"/>
+      <c r="X15" s="67" t="str">
+        <f t="shared" ref="X15" si="4">ROUND(( T15 / (T15 + V15) ) * 100,0) &amp; "%"</f>
+        <v>65%</v>
+      </c>
+      <c r="Y15" s="68"/>
+      <c r="Z15" s="69"/>
+      <c r="AA15" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB15" s="68"/>
+      <c r="AC15" s="69"/>
+      <c r="AD15" s="160"/>
+      <c r="AE15" s="161"/>
+      <c r="AF15" s="161"/>
+      <c r="AG15" s="161"/>
+      <c r="AH15" s="161"/>
+      <c r="AI15" s="161"/>
+      <c r="AJ15" s="161"/>
+      <c r="AK15" s="161"/>
+      <c r="AL15" s="161"/>
+      <c r="AM15" s="161"/>
+      <c r="AN15" s="161"/>
+      <c r="AO15" s="161"/>
+      <c r="AP15" s="161"/>
+      <c r="AQ15" s="162"/>
+      <c r="AR15" s="6"/>
+      <c r="AS15" s="141"/>
+      <c r="AT15" s="141"/>
+      <c r="AU15" s="141"/>
+      <c r="AW15" s="13"/>
+    </row>
+    <row r="16" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A16" s="1">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="72"/>
+      <c r="J16" s="148"/>
+      <c r="K16" s="153"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="100"/>
+      <c r="N16" s="158"/>
+      <c r="O16" s="158"/>
+      <c r="P16" s="158"/>
+      <c r="Q16" s="158"/>
+      <c r="R16" s="158"/>
+      <c r="S16" s="102"/>
+      <c r="T16" s="70"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="70"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="70"/>
+      <c r="Y16" s="159"/>
+      <c r="Z16" s="72"/>
+      <c r="AA16" s="70"/>
+      <c r="AB16" s="159"/>
+      <c r="AC16" s="72"/>
+      <c r="AD16" s="142"/>
+      <c r="AE16" s="156"/>
+      <c r="AF16" s="156"/>
+      <c r="AG16" s="156"/>
+      <c r="AH16" s="156"/>
+      <c r="AI16" s="156"/>
+      <c r="AJ16" s="156"/>
+      <c r="AK16" s="156"/>
+      <c r="AL16" s="156"/>
+      <c r="AM16" s="156"/>
+      <c r="AN16" s="156"/>
+      <c r="AO16" s="156"/>
+      <c r="AP16" s="156"/>
+      <c r="AQ16" s="163"/>
+      <c r="AR16" s="6"/>
+      <c r="AS16" s="141"/>
+      <c r="AT16" s="141"/>
+      <c r="AU16" s="141"/>
+      <c r="AW16" s="13"/>
+    </row>
+    <row r="17" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A17" s="1">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="75"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="103"/>
+      <c r="N17" s="104"/>
+      <c r="O17" s="104"/>
+      <c r="P17" s="104"/>
+      <c r="Q17" s="104"/>
+      <c r="R17" s="104"/>
+      <c r="S17" s="105"/>
+      <c r="T17" s="73"/>
+      <c r="U17" s="75"/>
+      <c r="V17" s="73"/>
+      <c r="W17" s="75"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="74"/>
+      <c r="Z17" s="75"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="75"/>
+      <c r="AD17" s="143"/>
+      <c r="AE17" s="144"/>
+      <c r="AF17" s="144"/>
+      <c r="AG17" s="144"/>
+      <c r="AH17" s="144"/>
+      <c r="AI17" s="144"/>
+      <c r="AJ17" s="144"/>
+      <c r="AK17" s="144"/>
+      <c r="AL17" s="144"/>
+      <c r="AM17" s="144"/>
+      <c r="AN17" s="144"/>
+      <c r="AO17" s="144"/>
+      <c r="AP17" s="144"/>
+      <c r="AQ17" s="164"/>
+      <c r="AR17" s="6"/>
+      <c r="AS17" s="141"/>
+      <c r="AT17" s="141"/>
+      <c r="AU17" s="141"/>
+      <c r="AW17" s="13"/>
+    </row>
+    <row r="18" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A18" s="1">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="67">
+        <f>H15 + 1</f>
+        <v>3</v>
+      </c>
+      <c r="I18" s="69"/>
+      <c r="J18" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K18" s="146"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="97" t="s">
+        <v>61</v>
+      </c>
+      <c r="N18" s="98"/>
+      <c r="O18" s="98"/>
+      <c r="P18" s="98"/>
+      <c r="Q18" s="98"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="99"/>
+      <c r="T18" s="67">
+        <v>14</v>
+      </c>
+      <c r="U18" s="69"/>
+      <c r="V18" s="67">
+        <v>13</v>
+      </c>
+      <c r="W18" s="69"/>
+      <c r="X18" s="67" t="str">
+        <f t="shared" ref="X18" si="5">ROUND(( T18 / (T18 + V18) ) * 100,0) &amp; "%"</f>
+        <v>52%</v>
+      </c>
+      <c r="Y18" s="68"/>
+      <c r="Z18" s="69"/>
+      <c r="AA18" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB18" s="68"/>
+      <c r="AC18" s="69"/>
+      <c r="AD18" s="160"/>
+      <c r="AE18" s="161"/>
+      <c r="AF18" s="161"/>
+      <c r="AG18" s="161"/>
+      <c r="AH18" s="161"/>
+      <c r="AI18" s="161"/>
+      <c r="AJ18" s="161"/>
+      <c r="AK18" s="161"/>
+      <c r="AL18" s="161"/>
+      <c r="AM18" s="161"/>
+      <c r="AN18" s="161"/>
+      <c r="AO18" s="161"/>
+      <c r="AP18" s="161"/>
+      <c r="AQ18" s="162"/>
+      <c r="AR18" s="6"/>
+      <c r="AS18" s="141"/>
+      <c r="AT18" s="141"/>
+      <c r="AU18" s="141"/>
+      <c r="AW18" s="13"/>
+    </row>
+    <row r="19" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A19" s="1">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="72"/>
+      <c r="J19" s="148"/>
+      <c r="K19" s="153"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="158"/>
+      <c r="O19" s="158"/>
+      <c r="P19" s="158"/>
+      <c r="Q19" s="158"/>
+      <c r="R19" s="158"/>
+      <c r="S19" s="102"/>
+      <c r="T19" s="70"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="70"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="70"/>
+      <c r="Y19" s="159"/>
+      <c r="Z19" s="72"/>
+      <c r="AA19" s="70"/>
+      <c r="AB19" s="159"/>
+      <c r="AC19" s="72"/>
+      <c r="AD19" s="142"/>
+      <c r="AE19" s="156"/>
+      <c r="AF19" s="156"/>
+      <c r="AG19" s="156"/>
+      <c r="AH19" s="156"/>
+      <c r="AI19" s="156"/>
+      <c r="AJ19" s="156"/>
+      <c r="AK19" s="156"/>
+      <c r="AL19" s="156"/>
+      <c r="AM19" s="156"/>
+      <c r="AN19" s="156"/>
+      <c r="AO19" s="156"/>
+      <c r="AP19" s="156"/>
+      <c r="AQ19" s="163"/>
+      <c r="AR19" s="6"/>
+      <c r="AS19" s="141"/>
+      <c r="AT19" s="141"/>
+      <c r="AU19" s="141"/>
+      <c r="AW19" s="13"/>
+    </row>
+    <row r="20" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A20" s="1">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="103"/>
+      <c r="N20" s="104"/>
+      <c r="O20" s="104"/>
+      <c r="P20" s="104"/>
+      <c r="Q20" s="104"/>
+      <c r="R20" s="104"/>
+      <c r="S20" s="105"/>
+      <c r="T20" s="73"/>
+      <c r="U20" s="75"/>
+      <c r="V20" s="73"/>
+      <c r="W20" s="75"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="74"/>
+      <c r="Z20" s="75"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="75"/>
+      <c r="AD20" s="143"/>
+      <c r="AE20" s="144"/>
+      <c r="AF20" s="144"/>
+      <c r="AG20" s="144"/>
+      <c r="AH20" s="144"/>
+      <c r="AI20" s="144"/>
+      <c r="AJ20" s="144"/>
+      <c r="AK20" s="144"/>
+      <c r="AL20" s="144"/>
+      <c r="AM20" s="144"/>
+      <c r="AN20" s="144"/>
+      <c r="AO20" s="144"/>
+      <c r="AP20" s="144"/>
+      <c r="AQ20" s="164"/>
+      <c r="AR20" s="6"/>
+      <c r="AS20" s="141"/>
+      <c r="AT20" s="141"/>
+      <c r="AU20" s="141"/>
+      <c r="AW20" s="13"/>
+    </row>
+    <row r="21" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="1">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="67">
+        <f>H18 + 1</f>
+        <v>4</v>
+      </c>
+      <c r="I21" s="69"/>
+      <c r="J21" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="146"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="N21" s="98"/>
+      <c r="O21" s="98"/>
+      <c r="P21" s="98"/>
+      <c r="Q21" s="98"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="99"/>
+      <c r="T21" s="67">
+        <v>14</v>
+      </c>
+      <c r="U21" s="69"/>
+      <c r="V21" s="67">
+        <v>13</v>
+      </c>
+      <c r="W21" s="69"/>
+      <c r="X21" s="67" t="str">
+        <f t="shared" ref="X21" si="6">ROUND(( T21 / (T21 + V21) ) * 100,0) &amp; "%"</f>
+        <v>52%</v>
+      </c>
+      <c r="Y21" s="68"/>
+      <c r="Z21" s="69"/>
+      <c r="AA21" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB21" s="68"/>
+      <c r="AC21" s="69"/>
+      <c r="AD21" s="160"/>
+      <c r="AE21" s="161"/>
+      <c r="AF21" s="161"/>
+      <c r="AG21" s="161"/>
+      <c r="AH21" s="161"/>
+      <c r="AI21" s="161"/>
+      <c r="AJ21" s="161"/>
+      <c r="AK21" s="161"/>
+      <c r="AL21" s="161"/>
+      <c r="AM21" s="161"/>
+      <c r="AN21" s="161"/>
+      <c r="AO21" s="161"/>
+      <c r="AP21" s="161"/>
+      <c r="AQ21" s="162"/>
+      <c r="AR21" s="6"/>
+      <c r="AS21" s="141"/>
+      <c r="AT21" s="141"/>
+      <c r="AU21" s="141"/>
+      <c r="AW21" s="13"/>
+    </row>
+    <row r="22" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A22" s="1">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="E22" s="141"/>
+      <c r="F22" s="141"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="72"/>
+      <c r="J22" s="148"/>
+      <c r="K22" s="153"/>
+      <c r="L22" s="149"/>
+      <c r="M22" s="100"/>
+      <c r="N22" s="158"/>
+      <c r="O22" s="158"/>
+      <c r="P22" s="158"/>
+      <c r="Q22" s="158"/>
+      <c r="R22" s="158"/>
+      <c r="S22" s="102"/>
+      <c r="T22" s="70"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="70"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="70"/>
+      <c r="Y22" s="159"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="70"/>
+      <c r="AB22" s="159"/>
+      <c r="AC22" s="72"/>
+      <c r="AD22" s="142"/>
+      <c r="AE22" s="156"/>
+      <c r="AF22" s="156"/>
+      <c r="AG22" s="156"/>
+      <c r="AH22" s="156"/>
+      <c r="AI22" s="156"/>
+      <c r="AJ22" s="156"/>
+      <c r="AK22" s="156"/>
+      <c r="AL22" s="156"/>
+      <c r="AM22" s="156"/>
+      <c r="AN22" s="156"/>
+      <c r="AO22" s="156"/>
+      <c r="AP22" s="156"/>
+      <c r="AQ22" s="163"/>
+      <c r="AR22" s="6"/>
+      <c r="AS22" s="141"/>
+      <c r="AT22" s="141"/>
+      <c r="AU22" s="141"/>
+      <c r="AW22" s="13"/>
+    </row>
+    <row r="23" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A23" s="1">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="75"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="103"/>
+      <c r="N23" s="104"/>
+      <c r="O23" s="104"/>
+      <c r="P23" s="104"/>
+      <c r="Q23" s="104"/>
+      <c r="R23" s="104"/>
+      <c r="S23" s="105"/>
+      <c r="T23" s="73"/>
+      <c r="U23" s="75"/>
+      <c r="V23" s="73"/>
+      <c r="W23" s="75"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="74"/>
+      <c r="Z23" s="75"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="75"/>
+      <c r="AD23" s="143"/>
+      <c r="AE23" s="144"/>
+      <c r="AF23" s="144"/>
+      <c r="AG23" s="144"/>
+      <c r="AH23" s="144"/>
+      <c r="AI23" s="144"/>
+      <c r="AJ23" s="144"/>
+      <c r="AK23" s="144"/>
+      <c r="AL23" s="144"/>
+      <c r="AM23" s="144"/>
+      <c r="AN23" s="144"/>
+      <c r="AO23" s="144"/>
+      <c r="AP23" s="144"/>
+      <c r="AQ23" s="164"/>
+      <c r="AR23" s="6"/>
+      <c r="AS23" s="141"/>
+      <c r="AT23" s="141"/>
+      <c r="AU23" s="141"/>
+      <c r="AW23" s="13"/>
+    </row>
+    <row r="24" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A24" s="1">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="12"/>
+      <c r="E24" s="141"/>
+      <c r="F24" s="141"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="67">
+        <f>H21 + 1</f>
+        <v>5</v>
+      </c>
+      <c r="I24" s="69"/>
+      <c r="J24" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K24" s="146"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="97" t="s">
+        <v>63</v>
+      </c>
+      <c r="N24" s="98"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="98"/>
+      <c r="Q24" s="98"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="99"/>
+      <c r="T24" s="67">
+        <v>14</v>
+      </c>
+      <c r="U24" s="69"/>
+      <c r="V24" s="67">
+        <v>13</v>
+      </c>
+      <c r="W24" s="69"/>
+      <c r="X24" s="67" t="str">
+        <f t="shared" ref="X24" si="7">ROUND(( T24 / (T24 + V24) ) * 100,0) &amp; "%"</f>
+        <v>52%</v>
+      </c>
+      <c r="Y24" s="68"/>
+      <c r="Z24" s="69"/>
+      <c r="AA24" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB24" s="68"/>
+      <c r="AC24" s="69"/>
+      <c r="AD24" s="160"/>
+      <c r="AE24" s="161"/>
+      <c r="AF24" s="161"/>
+      <c r="AG24" s="161"/>
+      <c r="AH24" s="161"/>
+      <c r="AI24" s="161"/>
+      <c r="AJ24" s="161"/>
+      <c r="AK24" s="161"/>
+      <c r="AL24" s="161"/>
+      <c r="AM24" s="161"/>
+      <c r="AN24" s="161"/>
+      <c r="AO24" s="161"/>
+      <c r="AP24" s="161"/>
+      <c r="AQ24" s="162"/>
+      <c r="AR24" s="6"/>
+      <c r="AS24" s="141"/>
+      <c r="AT24" s="141"/>
+      <c r="AU24" s="141"/>
+      <c r="AW24" s="13"/>
+    </row>
+    <row r="25" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A25" s="1">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="E25" s="141"/>
+      <c r="F25" s="141"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="72"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="153"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="158"/>
+      <c r="O25" s="158"/>
+      <c r="P25" s="158"/>
+      <c r="Q25" s="158"/>
+      <c r="R25" s="158"/>
+      <c r="S25" s="102"/>
+      <c r="T25" s="70"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="70"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="70"/>
+      <c r="Y25" s="159"/>
+      <c r="Z25" s="72"/>
+      <c r="AA25" s="70"/>
+      <c r="AB25" s="159"/>
+      <c r="AC25" s="72"/>
+      <c r="AD25" s="142"/>
+      <c r="AE25" s="156"/>
+      <c r="AF25" s="156"/>
+      <c r="AG25" s="156"/>
+      <c r="AH25" s="156"/>
+      <c r="AI25" s="156"/>
+      <c r="AJ25" s="156"/>
+      <c r="AK25" s="156"/>
+      <c r="AL25" s="156"/>
+      <c r="AM25" s="156"/>
+      <c r="AN25" s="156"/>
+      <c r="AO25" s="156"/>
+      <c r="AP25" s="156"/>
+      <c r="AQ25" s="163"/>
+      <c r="AR25" s="6"/>
+      <c r="AS25" s="141"/>
+      <c r="AT25" s="141"/>
+      <c r="AU25" s="141"/>
+      <c r="AW25" s="13"/>
+    </row>
+    <row r="26" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="1">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B26" s="12"/>
+      <c r="E26" s="141"/>
+      <c r="F26" s="141"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="75"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="103"/>
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="105"/>
+      <c r="T26" s="73"/>
+      <c r="U26" s="75"/>
+      <c r="V26" s="73"/>
+      <c r="W26" s="75"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="74"/>
+      <c r="Z26" s="75"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="75"/>
+      <c r="AD26" s="143"/>
+      <c r="AE26" s="144"/>
+      <c r="AF26" s="144"/>
+      <c r="AG26" s="144"/>
+      <c r="AH26" s="144"/>
+      <c r="AI26" s="144"/>
+      <c r="AJ26" s="144"/>
+      <c r="AK26" s="144"/>
+      <c r="AL26" s="144"/>
+      <c r="AM26" s="144"/>
+      <c r="AN26" s="144"/>
+      <c r="AO26" s="144"/>
+      <c r="AP26" s="144"/>
+      <c r="AQ26" s="164"/>
+      <c r="AR26" s="6"/>
+      <c r="AS26" s="141"/>
+      <c r="AT26" s="141"/>
+      <c r="AU26" s="141"/>
+      <c r="AW26" s="13"/>
+    </row>
+    <row r="27" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A27" s="1">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B27" s="12"/>
+      <c r="E27" s="141"/>
+      <c r="F27" s="141"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="156"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="156"/>
+      <c r="K27" s="156"/>
+      <c r="L27" s="156"/>
+      <c r="M27" s="156"/>
+      <c r="N27" s="156"/>
+      <c r="O27" s="156"/>
+      <c r="P27" s="156"/>
+      <c r="Q27" s="156"/>
+      <c r="R27" s="156"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="156"/>
+      <c r="W27" s="156"/>
+      <c r="X27" s="156"/>
+      <c r="Y27" s="156"/>
+      <c r="Z27" s="156"/>
+      <c r="AA27" s="156"/>
+      <c r="AB27" s="156"/>
+      <c r="AC27" s="156"/>
+      <c r="AD27" s="156"/>
+      <c r="AE27" s="156"/>
+      <c r="AF27" s="156"/>
+      <c r="AG27" s="156"/>
+      <c r="AH27" s="156"/>
+      <c r="AI27" s="156"/>
+      <c r="AJ27" s="156"/>
+      <c r="AK27" s="156"/>
+      <c r="AL27" s="156"/>
+      <c r="AM27" s="156"/>
+      <c r="AN27" s="156"/>
+      <c r="AO27" s="156"/>
+      <c r="AP27" s="156"/>
+      <c r="AQ27" s="156"/>
+      <c r="AR27" s="6"/>
+      <c r="AS27" s="141"/>
+      <c r="AT27" s="141"/>
+      <c r="AU27" s="141"/>
+      <c r="AW27" s="13"/>
+    </row>
+    <row r="28" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A28" s="1">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B28" s="12"/>
+      <c r="E28" s="141"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="156" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
+      <c r="L28" s="156"/>
+      <c r="M28" s="156"/>
+      <c r="N28" s="156"/>
+      <c r="O28" s="156"/>
+      <c r="P28" s="156"/>
+      <c r="Q28" s="156"/>
+      <c r="R28" s="156"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="156"/>
+      <c r="W28" s="156"/>
+      <c r="X28" s="156"/>
+      <c r="Y28" s="156"/>
+      <c r="Z28" s="156"/>
+      <c r="AA28" s="156"/>
+      <c r="AB28" s="156"/>
+      <c r="AC28" s="156"/>
+      <c r="AD28" s="156"/>
+      <c r="AE28" s="156"/>
+      <c r="AF28" s="156"/>
+      <c r="AG28" s="156"/>
+      <c r="AH28" s="156"/>
+      <c r="AI28" s="156"/>
+      <c r="AJ28" s="156"/>
+      <c r="AK28" s="156"/>
+      <c r="AL28" s="156"/>
+      <c r="AM28" s="156"/>
+      <c r="AN28" s="156"/>
+      <c r="AO28" s="156"/>
+      <c r="AP28" s="156"/>
+      <c r="AQ28" s="156"/>
+      <c r="AR28" s="6"/>
+      <c r="AS28" s="141"/>
+      <c r="AT28" s="141"/>
+      <c r="AU28" s="141"/>
+      <c r="AW28" s="13"/>
+    </row>
+    <row r="29" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A29" s="1">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B29" s="12"/>
+      <c r="E29" s="141"/>
+      <c r="F29" s="141"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="156"/>
+      <c r="K29" s="156"/>
+      <c r="L29" s="156"/>
+      <c r="M29" s="156"/>
+      <c r="N29" s="156"/>
+      <c r="O29" s="156"/>
+      <c r="P29" s="156"/>
+      <c r="Q29" s="156"/>
+      <c r="R29" s="156"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="156"/>
+      <c r="W29" s="156"/>
+      <c r="X29" s="156"/>
+      <c r="Y29" s="156"/>
+      <c r="Z29" s="156"/>
+      <c r="AA29" s="156"/>
+      <c r="AB29" s="156"/>
+      <c r="AC29" s="156"/>
+      <c r="AD29" s="156"/>
+      <c r="AE29" s="156"/>
+      <c r="AF29" s="156"/>
+      <c r="AG29" s="156"/>
+      <c r="AH29" s="156"/>
+      <c r="AI29" s="156"/>
+      <c r="AJ29" s="156"/>
+      <c r="AK29" s="156"/>
+      <c r="AL29" s="156"/>
+      <c r="AM29" s="156"/>
+      <c r="AN29" s="156"/>
+      <c r="AO29" s="156"/>
+      <c r="AP29" s="156"/>
+      <c r="AQ29" s="156"/>
+      <c r="AR29" s="6"/>
+      <c r="AS29" s="141"/>
+      <c r="AT29" s="141"/>
+      <c r="AU29" s="141"/>
+      <c r="AW29" s="13"/>
+    </row>
+    <row r="30" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A30" s="1">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B30" s="12"/>
+      <c r="E30" s="141"/>
+      <c r="F30" s="141"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="67">
+        <v>86</v>
+      </c>
+      <c r="I30" s="69"/>
+      <c r="J30" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K30" s="146"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="97" t="s">
+        <v>64</v>
+      </c>
+      <c r="N30" s="98"/>
+      <c r="O30" s="98"/>
+      <c r="P30" s="98"/>
+      <c r="Q30" s="98"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="99"/>
+      <c r="T30" s="67">
+        <v>14</v>
+      </c>
+      <c r="U30" s="69"/>
+      <c r="V30" s="67">
+        <v>13</v>
+      </c>
+      <c r="W30" s="69"/>
+      <c r="X30" s="67" t="str">
+        <f t="shared" ref="X30" si="8">ROUND(( T30 / (T30 + V30) ) * 100,0) &amp; "%"</f>
+        <v>52%</v>
+      </c>
+      <c r="Y30" s="68"/>
+      <c r="Z30" s="69"/>
+      <c r="AA30" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB30" s="68"/>
+      <c r="AC30" s="69"/>
+      <c r="AD30" s="160"/>
+      <c r="AE30" s="161"/>
+      <c r="AF30" s="161"/>
+      <c r="AG30" s="161"/>
+      <c r="AH30" s="161"/>
+      <c r="AI30" s="161"/>
+      <c r="AJ30" s="161"/>
+      <c r="AK30" s="161"/>
+      <c r="AL30" s="161"/>
+      <c r="AM30" s="161"/>
+      <c r="AN30" s="161"/>
+      <c r="AO30" s="161"/>
+      <c r="AP30" s="161"/>
+      <c r="AQ30" s="162"/>
+      <c r="AR30" s="6"/>
+      <c r="AS30" s="141"/>
+      <c r="AT30" s="141"/>
+      <c r="AU30" s="141"/>
+      <c r="AW30" s="13"/>
+    </row>
+    <row r="31" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A31" s="1">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B31" s="12"/>
+      <c r="E31" s="141"/>
+      <c r="F31" s="141"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="72"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="153"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="158"/>
+      <c r="O31" s="158"/>
+      <c r="P31" s="158"/>
+      <c r="Q31" s="158"/>
+      <c r="R31" s="158"/>
+      <c r="S31" s="102"/>
+      <c r="T31" s="70"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="70"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="70"/>
+      <c r="Y31" s="159"/>
+      <c r="Z31" s="72"/>
+      <c r="AA31" s="70"/>
+      <c r="AB31" s="159"/>
+      <c r="AC31" s="72"/>
+      <c r="AD31" s="142"/>
+      <c r="AE31" s="156"/>
+      <c r="AF31" s="156"/>
+      <c r="AG31" s="156"/>
+      <c r="AH31" s="156"/>
+      <c r="AI31" s="156"/>
+      <c r="AJ31" s="156"/>
+      <c r="AK31" s="156"/>
+      <c r="AL31" s="156"/>
+      <c r="AM31" s="156"/>
+      <c r="AN31" s="156"/>
+      <c r="AO31" s="156"/>
+      <c r="AP31" s="156"/>
+      <c r="AQ31" s="163"/>
+      <c r="AR31" s="6"/>
+      <c r="AS31" s="141"/>
+      <c r="AT31" s="141"/>
+      <c r="AU31" s="141"/>
+      <c r="AW31" s="13"/>
+    </row>
+    <row r="32" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A32" s="1">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B32" s="12"/>
+      <c r="E32" s="141"/>
+      <c r="F32" s="141"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="75"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="103"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="104"/>
+      <c r="P32" s="104"/>
+      <c r="Q32" s="104"/>
+      <c r="R32" s="104"/>
+      <c r="S32" s="105"/>
+      <c r="T32" s="73"/>
+      <c r="U32" s="75"/>
+      <c r="V32" s="73"/>
+      <c r="W32" s="75"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="74"/>
+      <c r="Z32" s="75"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="75"/>
+      <c r="AD32" s="143"/>
+      <c r="AE32" s="144"/>
+      <c r="AF32" s="144"/>
+      <c r="AG32" s="144"/>
+      <c r="AH32" s="144"/>
+      <c r="AI32" s="144"/>
+      <c r="AJ32" s="144"/>
+      <c r="AK32" s="144"/>
+      <c r="AL32" s="144"/>
+      <c r="AM32" s="144"/>
+      <c r="AN32" s="144"/>
+      <c r="AO32" s="144"/>
+      <c r="AP32" s="144"/>
+      <c r="AQ32" s="164"/>
+      <c r="AR32" s="6"/>
+      <c r="AS32" s="141"/>
+      <c r="AT32" s="141"/>
+      <c r="AU32" s="141"/>
+      <c r="AW32" s="13"/>
+    </row>
+    <row r="33" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A33" s="1">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B33" s="12"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="67">
+        <v>87</v>
+      </c>
+      <c r="I33" s="69"/>
+      <c r="J33" s="145" t="s">
+        <v>47</v>
+      </c>
+      <c r="K33" s="146"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="97" t="s">
+        <v>65</v>
+      </c>
+      <c r="N33" s="98"/>
+      <c r="O33" s="98"/>
+      <c r="P33" s="98"/>
+      <c r="Q33" s="98"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="99"/>
+      <c r="T33" s="67">
+        <v>14</v>
+      </c>
+      <c r="U33" s="69"/>
+      <c r="V33" s="67">
+        <v>13</v>
+      </c>
+      <c r="W33" s="69"/>
+      <c r="X33" s="67" t="str">
+        <f t="shared" ref="X33" si="9">ROUND(( T33 / (T33 + V33) ) * 100,0) &amp; "%"</f>
+        <v>52%</v>
+      </c>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="69"/>
+      <c r="AA33" s="67" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB33" s="68"/>
+      <c r="AC33" s="69"/>
+      <c r="AD33" s="160"/>
+      <c r="AE33" s="161"/>
+      <c r="AF33" s="161"/>
+      <c r="AG33" s="161"/>
+      <c r="AH33" s="161"/>
+      <c r="AI33" s="161"/>
+      <c r="AJ33" s="161"/>
+      <c r="AK33" s="161"/>
+      <c r="AL33" s="161"/>
+      <c r="AM33" s="161"/>
+      <c r="AN33" s="161"/>
+      <c r="AO33" s="161"/>
+      <c r="AP33" s="161"/>
+      <c r="AQ33" s="162"/>
+      <c r="AR33" s="6"/>
+      <c r="AS33" s="141"/>
+      <c r="AT33" s="141"/>
+      <c r="AU33" s="141"/>
+      <c r="AW33" s="13"/>
+    </row>
+    <row r="34" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A34" s="1">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B34" s="12"/>
+      <c r="E34" s="141"/>
+      <c r="F34" s="141"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="153"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="100"/>
+      <c r="N34" s="158"/>
+      <c r="O34" s="158"/>
+      <c r="P34" s="158"/>
+      <c r="Q34" s="158"/>
+      <c r="R34" s="158"/>
+      <c r="S34" s="102"/>
+      <c r="T34" s="70"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="70"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="70"/>
+      <c r="Y34" s="159"/>
+      <c r="Z34" s="72"/>
+      <c r="AA34" s="70"/>
+      <c r="AB34" s="159"/>
+      <c r="AC34" s="72"/>
+      <c r="AD34" s="142"/>
+      <c r="AE34" s="156"/>
+      <c r="AF34" s="156"/>
+      <c r="AG34" s="156"/>
+      <c r="AH34" s="156"/>
+      <c r="AI34" s="156"/>
+      <c r="AJ34" s="156"/>
+      <c r="AK34" s="156"/>
+      <c r="AL34" s="156"/>
+      <c r="AM34" s="156"/>
+      <c r="AN34" s="156"/>
+      <c r="AO34" s="156"/>
+      <c r="AP34" s="156"/>
+      <c r="AQ34" s="163"/>
+      <c r="AR34" s="6"/>
+      <c r="AS34" s="141"/>
+      <c r="AT34" s="141"/>
+      <c r="AU34" s="141"/>
+      <c r="AW34" s="13"/>
+    </row>
+    <row r="35" spans="1:49" ht="12.6" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A35" s="1">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B35" s="12"/>
+      <c r="E35" s="141"/>
+      <c r="F35" s="141"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="73"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="150"/>
+      <c r="K35" s="151"/>
+      <c r="L35" s="152"/>
+      <c r="M35" s="103"/>
+      <c r="N35" s="104"/>
+      <c r="O35" s="104"/>
+      <c r="P35" s="104"/>
+      <c r="Q35" s="104"/>
+      <c r="R35" s="104"/>
+      <c r="S35" s="105"/>
+      <c r="T35" s="73"/>
+      <c r="U35" s="75"/>
+      <c r="V35" s="73"/>
+      <c r="W35" s="75"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="74"/>
+      <c r="Z35" s="75"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="75"/>
+      <c r="AD35" s="143"/>
+      <c r="AE35" s="144"/>
+      <c r="AF35" s="144"/>
+      <c r="AG35" s="144"/>
+      <c r="AH35" s="144"/>
+      <c r="AI35" s="144"/>
+      <c r="AJ35" s="144"/>
+      <c r="AK35" s="144"/>
+      <c r="AL35" s="144"/>
+      <c r="AM35" s="144"/>
+      <c r="AN35" s="144"/>
+      <c r="AO35" s="144"/>
+      <c r="AP35" s="144"/>
+      <c r="AQ35" s="164"/>
+      <c r="AR35" s="6"/>
+      <c r="AS35" s="141"/>
+      <c r="AT35" s="141"/>
+      <c r="AU35" s="141"/>
+      <c r="AW35" s="13"/>
+    </row>
+    <row r="36" spans="1:49" ht="18" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A36" s="1">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B36" s="12"/>
+      <c r="E36" s="141"/>
+      <c r="F36" s="141"/>
+      <c r="G36" s="143"/>
+      <c r="H36" s="144"/>
+      <c r="I36" s="144"/>
+      <c r="J36" s="144"/>
+      <c r="K36" s="144"/>
+      <c r="L36" s="144"/>
+      <c r="M36" s="144"/>
+      <c r="N36" s="144"/>
+      <c r="O36" s="144"/>
+      <c r="P36" s="144"/>
+      <c r="Q36" s="144"/>
+      <c r="R36" s="144"/>
+      <c r="S36" s="144"/>
+      <c r="T36" s="144"/>
+      <c r="U36" s="144"/>
+      <c r="V36" s="144"/>
+      <c r="W36" s="144"/>
+      <c r="X36" s="144"/>
+      <c r="Y36" s="144"/>
+      <c r="Z36" s="144"/>
+      <c r="AA36" s="144"/>
+      <c r="AB36" s="144"/>
+      <c r="AC36" s="144"/>
+      <c r="AD36" s="144"/>
+      <c r="AE36" s="144"/>
+      <c r="AF36" s="144"/>
+      <c r="AG36" s="144"/>
+      <c r="AH36" s="144"/>
+      <c r="AI36" s="144"/>
+      <c r="AJ36" s="144"/>
+      <c r="AK36" s="144"/>
+      <c r="AL36" s="144"/>
+      <c r="AM36" s="144"/>
+      <c r="AN36" s="144"/>
+      <c r="AO36" s="144"/>
+      <c r="AP36" s="144"/>
+      <c r="AQ36" s="144"/>
+      <c r="AR36" s="9"/>
+      <c r="AS36" s="141"/>
+      <c r="AT36" s="141"/>
+      <c r="AU36" s="141"/>
+      <c r="AW36" s="13"/>
+    </row>
+    <row r="37" spans="1:49" ht="13.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="1">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="15"/>
+      <c r="H37" s="15"/>
+      <c r="I37" s="15"/>
+      <c r="J37" s="15"/>
+      <c r="K37" s="15"/>
+      <c r="L37" s="15"/>
+      <c r="M37" s="15"/>
+      <c r="N37" s="15"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="15"/>
+      <c r="Q37" s="15"/>
+      <c r="R37" s="15"/>
+      <c r="S37" s="15"/>
+      <c r="T37" s="15"/>
+      <c r="U37" s="15"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="15"/>
+      <c r="Y37" s="15"/>
+      <c r="Z37" s="15"/>
+      <c r="AA37" s="15"/>
+      <c r="AB37" s="15"/>
+      <c r="AC37" s="15"/>
+      <c r="AD37" s="15"/>
+      <c r="AE37" s="15"/>
+      <c r="AF37" s="15"/>
+      <c r="AG37" s="15"/>
+      <c r="AH37" s="15"/>
+      <c r="AI37" s="15"/>
+      <c r="AJ37" s="15"/>
+      <c r="AK37" s="15"/>
+      <c r="AL37" s="15"/>
+      <c r="AM37" s="15"/>
+      <c r="AN37" s="15"/>
+      <c r="AO37" s="15"/>
+      <c r="AP37" s="15"/>
+      <c r="AQ37" s="15"/>
+      <c r="AR37" s="15"/>
+      <c r="AS37" s="15"/>
+      <c r="AT37" s="15"/>
+      <c r="AU37" s="15"/>
+      <c r="AV37" s="15"/>
+      <c r="AW37" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="70">
+    <mergeCell ref="S4:W4"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="K9:M9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="K7:M7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="K8:M8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="AA15:AC17"/>
+    <mergeCell ref="AA18:AC20"/>
+    <mergeCell ref="AA21:AC23"/>
+    <mergeCell ref="AA24:AC26"/>
+    <mergeCell ref="AA30:AC32"/>
+    <mergeCell ref="AA33:AC35"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AA12:AC14"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="H33:I35"/>
+    <mergeCell ref="J33:L35"/>
+    <mergeCell ref="M33:S35"/>
+    <mergeCell ref="T33:U35"/>
+    <mergeCell ref="V33:W35"/>
+    <mergeCell ref="X33:Z35"/>
+    <mergeCell ref="H30:I32"/>
+    <mergeCell ref="J30:L32"/>
+    <mergeCell ref="M30:S32"/>
+    <mergeCell ref="T30:U32"/>
+    <mergeCell ref="V30:W32"/>
+    <mergeCell ref="X30:Z32"/>
+    <mergeCell ref="H24:I26"/>
+    <mergeCell ref="J24:L26"/>
+    <mergeCell ref="M24:S26"/>
+    <mergeCell ref="T24:U26"/>
+    <mergeCell ref="V24:W26"/>
+    <mergeCell ref="X24:Z26"/>
+    <mergeCell ref="H21:I23"/>
+    <mergeCell ref="J21:L23"/>
+    <mergeCell ref="M21:S23"/>
+    <mergeCell ref="T21:U23"/>
+    <mergeCell ref="V21:W23"/>
+    <mergeCell ref="X21:Z23"/>
+    <mergeCell ref="H18:I20"/>
+    <mergeCell ref="J18:L20"/>
+    <mergeCell ref="M18:S20"/>
+    <mergeCell ref="T18:U20"/>
+    <mergeCell ref="V18:W20"/>
+    <mergeCell ref="X18:Z20"/>
+    <mergeCell ref="H15:I17"/>
+    <mergeCell ref="J15:L17"/>
+    <mergeCell ref="M15:S17"/>
+    <mergeCell ref="T15:U17"/>
+    <mergeCell ref="V15:W17"/>
+    <mergeCell ref="X15:Z17"/>
+    <mergeCell ref="H12:I14"/>
+    <mergeCell ref="J12:L14"/>
+    <mergeCell ref="M12:S14"/>
+    <mergeCell ref="T12:U14"/>
+    <mergeCell ref="V12:W14"/>
+    <mergeCell ref="X12:Z14"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:W11"/>
+    <mergeCell ref="X11:Z11"/>
+    <mergeCell ref="X4:Y4"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="56" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>